--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61BC1B4-2325-4243-A2FA-B2F420DE06F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0BEE02-105F-464E-ADC3-3D37E835842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,20 +1786,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5" customWidth="1"/>
-    <col min="9" max="9" width="73.125" customWidth="1"/>
-    <col min="10" max="10" width="77.125" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" customWidth="1"/>
+    <col min="9" max="9" width="73.109375" customWidth="1"/>
+    <col min="10" max="10" width="77.109375" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="100.9">
+    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="72">
+    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="216">
+    <row r="22" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="115.15">
+    <row r="24" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="360">
+    <row r="26" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="43.15">
+    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="158.44999999999999">
+    <row r="29" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="86.45">
+    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="43.15">
+    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="302.45">
+    <row r="33" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="72">
+    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="115.15">
+    <row r="35" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72">
+    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="28.9">
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="43.15">
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="57.6">
+    <row r="40" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="72">
+    <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="43.15">
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="72">
+    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="86.45">
+    <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="129.6">
+    <row r="47" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="57.6">
+    <row r="50" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="72">
+    <row r="51" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="129.6">
+    <row r="52" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.9">
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="43.15">
+    <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="57.6">
+    <row r="58" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.9">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="43.15">
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="57.6">
+    <row r="62" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="86.45">
+    <row r="63" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="57.6">
+    <row r="64" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="115.15">
+    <row r="65" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3970,16 +3970,37 @@
     <hyperlink ref="G48" r:id="rId45" xr:uid="{6453E7CA-D78A-4770-9FD8-83A55CE3DBC0}"/>
     <hyperlink ref="G43" r:id="rId46" xr:uid="{D25C2D7B-C3C7-4E26-A139-5F31C1B16DD5}"/>
     <hyperlink ref="G47" r:id="rId47" xr:uid="{44C624C4-D3DE-44DC-9F1F-76C9B08D3D45}"/>
+    <hyperlink ref="G66" r:id="rId48" xr:uid="{AC90796D-52DA-42FB-88A1-61A7ECBF4408}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -4192,34 +4213,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0BEE02-105F-464E-ADC3-3D37E835842D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCEB03D-F7DE-46FE-A998-FE1621B600C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15444" yWindow="4344" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="490">
   <si>
     <t>Id</t>
   </si>
@@ -1277,12 +1277,296 @@
   <si>
     <t>Business Analyst</t>
   </si>
+  <si>
+    <t>2025-3-3 下午08:57:11</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午09:08:54</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午09:15:45</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午09:16:25</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午09:28:33</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午10:55:05</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午11:14:11</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午11:30:12</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午11:34:41</t>
+  </si>
+  <si>
+    <t>2025-3-3 下午11:59:14</t>
+  </si>
+  <si>
+    <t>2025-3-4 下午03:41:52</t>
+  </si>
+  <si>
+    <t>2025-3-4 下午06:46:26</t>
+  </si>
+  <si>
+    <t>2025-3-5 下午01:33:09</t>
+  </si>
+  <si>
+    <t>2025-3-5 下午09:19:39</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2025-3-3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>07:11:12</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhmohamed1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aa8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>cjbuenaventura@myseneca.ca</t>
+  </si>
+  <si>
+    <t>vsavchyn@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgon@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgupta1797@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>sshrestha140@myseneca.ca</t>
+  </si>
+  <si>
+    <t>uderyigit@myseneca.ca</t>
+  </si>
+  <si>
+    <t>tjojaokomo@myseneca.ca</t>
+  </si>
+  <si>
+    <t>umprajapati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>kahandesai2114@gmail.com</t>
+  </si>
+  <si>
+    <t>Aarora9525@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>siddhi4328@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruhail Hamza Mohamed</t>
+  </si>
+  <si>
+    <t>Arafat Ahmed Ansari</t>
+  </si>
+  <si>
+    <t>Kahan Desai</t>
+  </si>
+  <si>
+    <t>Cleo Buenaventura</t>
+  </si>
+  <si>
+    <t>Vladyslav Savchyn</t>
+  </si>
+  <si>
+    <t>Subhankar Gon</t>
+  </si>
+  <si>
+    <t>Sarthak Gupta</t>
+  </si>
+  <si>
+    <t>Suhana Shrestha</t>
+  </si>
+  <si>
+    <t>Deniz Eryigit</t>
+  </si>
+  <si>
+    <t>Tomisin Jephthah Ojaokomo</t>
+  </si>
+  <si>
+    <t>Ansh Arora</t>
+  </si>
+  <si>
+    <t>Utpal Manishchandra Prajapati</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Siddhi Patel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1omRCdXrgpM0zmuPKzd45X5cy3P99Jv2V</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14kBdmcWhUM5qHieKgrQNHfgUGK-CPkb-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kahandesai</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/cleo-buenaventura</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vsavchyn/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/subhankargon/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/suhana-shrestha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deniz-eryigit-2bbb69293/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/num-praditsakul-67a629132</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/siddhipatel10/</t>
+  </si>
+  <si>
+    <t>Marketing Project Manager</t>
+  </si>
+  <si>
+    <t>Software Development Team Lead</t>
+  </si>
+  <si>
+    <t>Senior Consultant</t>
+  </si>
+  <si>
+    <t>Backend Tester: Tested backend API with Jest and Supertest. Sometimes tested front-end.</t>
+  </si>
+  <si>
+    <t>P.E Officer</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Motion Designer</t>
+  </si>
+  <si>
+    <t>Manager - Discord and Ticketing Systems</t>
+  </si>
+  <si>
+    <t>Front-End Developer</t>
+  </si>
+  <si>
+    <t>student success officer</t>
+  </si>
+  <si>
+    <t>QA/QC Manager</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Student Success Officer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a Student Success Officer for Hackathon 2025, my role focuses on ensuring a seamless and engaging experience for participants. I am responsible for communicating with students regarding their meal preferences, addressing any inquiries they may have, and facilitating smooth onboarding. Additionally, I provide guidance, assist with logistical concerns, and ensure that all necessary processes are completed efficiently. By maintaining active communication, I help foster a supportive and well-organized hackathon environment, ensuring that participants feel welcomed and set up for success.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chief of Staff - Support and guide a dedicated team to successfully execute Hackathon 2025 at Seneca Polytechnic by fostering collaboration, ensuring efficient resource use, and helping achieve key milestones.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fenil Mehta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,6 +1588,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1384,9 +1680,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K66" totalsRowShown="0">
-  <autoFilter ref="A1:K66" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K81" totalsRowShown="0">
+  <autoFilter ref="A1:K81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
+    <sortCondition ref="K1:K66"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="8">
       <extLst>
@@ -1784,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1836,2146 +2139,2543 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1">
-        <v>45638.911053240743</v>
+        <v>45686.658611111103</v>
       </c>
       <c r="C2" s="1">
-        <v>45638.914398148147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45686.661909722199</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>45638.91777777778</v>
+        <v>45680.595185185201</v>
       </c>
       <c r="C3" s="1">
-        <v>45638.955289351848</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
+        <v>45680.598993055602</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>45639.596550925926</v>
+        <v>45683.842013888898</v>
       </c>
       <c r="C4" s="1">
-        <v>45639.606354166666</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45683.844085648103</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
-        <v>45639.660682870373</v>
+        <v>45686.810277777797</v>
       </c>
       <c r="C5" s="1">
-        <v>45639.67628472222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
+        <v>45686.812164351897</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
-        <v>45639.818182870367</v>
+        <v>45685.7008796296</v>
       </c>
       <c r="C6" s="1">
-        <v>45639.819953703707</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
+        <v>45685.709444444401</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>45640.575208333335</v>
+        <v>45686.671678240702</v>
       </c>
       <c r="C7" s="1">
-        <v>45640.577534722222</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45686.6856134259</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>45644.877951388888</v>
+        <v>45682.550092592603</v>
       </c>
       <c r="C8" s="1">
-        <v>45644.884259259263</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45682.553495370397</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1">
-        <v>45645.755289351851</v>
+        <v>45686.955497685201</v>
       </c>
       <c r="C9" s="1">
-        <v>45645.777824074074</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
+        <v>45686.958634259303</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" s="1">
-        <v>45659.517291666663</v>
+        <v>45686.974652777797</v>
       </c>
       <c r="C10" s="1">
-        <v>45659.518333333333</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45687.001516203702</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
-        <v>45659.570057870369</v>
+        <v>45691.845543981501</v>
       </c>
       <c r="C11" s="1">
-        <v>45659.570868055554</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45691.847048611096</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="360" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>45662.086689814816</v>
+        <v>45675.018506944398</v>
       </c>
       <c r="C12" s="1">
-        <v>45662.095266203702</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45675.022870370398</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
-        <v>45663.410856481503</v>
+        <v>45682.581944444399</v>
       </c>
       <c r="C13" s="1">
-        <v>45663.417175925897</v>
+        <v>45682.619467592602</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>241</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="J13" s="2"/>
+      <c r="K13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
-        <v>45664.800914351901</v>
+        <v>45688.8500347222</v>
       </c>
       <c r="C14" s="1">
-        <v>45664.804675925901</v>
+        <v>45688.854733796303</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
+        <v>368</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K14" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>45665.199467592603</v>
+        <v>45686.838217592602</v>
       </c>
       <c r="C15" s="1">
-        <v>45665.212673611102</v>
+        <v>45686.839953703697</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>85</v>
+        <v>336</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>340</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="J15" s="2"/>
+      <c r="K15" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
-        <v>45665.530451388899</v>
+        <v>45686.760543981502</v>
       </c>
       <c r="C16" s="1">
-        <v>45665.533773148098</v>
+        <v>45686.764386574097</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>324</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>92</v>
+        <v>327</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
-        <v>45665.655520833301</v>
+        <v>45688.7715046296</v>
       </c>
       <c r="C17" s="1">
-        <v>45665.657627314802</v>
+        <v>45688.7755092593</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
+        <v>361</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>96</v>
+        <v>363</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>97</v>
+        <v>364</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>99</v>
+        <v>366</v>
       </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1">
-        <v>45665.7163657407</v>
+        <v>45689.728865740697</v>
       </c>
       <c r="C18" s="1">
-        <v>45665.724722222199</v>
+        <v>45689.734270833302</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
+        <v>374</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1">
-        <v>45665.873993055597</v>
+        <v>45685.979479166701</v>
       </c>
       <c r="C19" s="1">
-        <v>45665.881087962996</v>
+        <v>45685.985578703701</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>108</v>
+        <v>281</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1">
-        <v>45665.8913425926</v>
+        <v>45686.719074074099</v>
       </c>
       <c r="C20" s="1">
-        <v>45665.903078703697</v>
+        <v>45686.719745370399</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>318</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>116</v>
+        <v>320</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>117</v>
+        <v>321</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1">
-        <v>45666.898900462998</v>
+        <v>45692.672060185199</v>
       </c>
       <c r="C21" s="1">
-        <v>45666.902361111097</v>
+        <v>45692.681608796302</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>393</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>120</v>
+        <v>394</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>121</v>
+        <v>395</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>123</v>
+        <v>397</v>
       </c>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="216" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>45667.470844907402</v>
+        <v>45708.988541666702</v>
       </c>
       <c r="C22" s="1">
-        <v>45667.474525463003</v>
+        <v>45709.002928240698</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>398</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
+        <v>400</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>127</v>
+        <v>401</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>45667.484849537002</v>
+        <v>45675.760474536997</v>
       </c>
       <c r="C23" s="1">
-        <v>45667.490335648203</v>
+        <v>45675.769027777802</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>45668.652233796303</v>
+        <v>45675.6925694444</v>
       </c>
       <c r="C24" s="1">
-        <v>45668.655092592599</v>
+        <v>45675.693761574097</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>45670.651388888902</v>
+        <v>45675.383900462999</v>
       </c>
       <c r="C25" s="1">
-        <v>45670.655057870397</v>
+        <v>45675.401875000003</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
-        <v>45675.018506944398</v>
+        <v>45681.6726851852</v>
       </c>
       <c r="C26" s="1">
-        <v>45675.022870370398</v>
+        <v>45681.803356481498</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>150</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
-        <v>45675.383900462999</v>
+        <v>45685.849027777796</v>
       </c>
       <c r="C27" s="1">
-        <v>45675.401875000003</v>
+        <v>45685.871701388904</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>153</v>
+        <v>263</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>155</v>
+        <v>267</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>45675.6925694444</v>
+        <v>45677.596921296303</v>
       </c>
       <c r="C28" s="1">
-        <v>45675.693761574097</v>
+        <v>45677.600173611099</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>45675.735810185201</v>
+        <v>45685.916608796302</v>
       </c>
       <c r="C29" s="1">
-        <v>45675.751585648097</v>
+        <v>45685.920983796299</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>165</v>
+        <v>270</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>165</v>
+        <v>271</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
-        <v>45675.760474536997</v>
+        <v>45686.685358796298</v>
       </c>
       <c r="C30" s="1">
-        <v>45675.769027777802</v>
+        <v>45686.704814814802</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>171</v>
+        <v>313</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>173</v>
+        <v>316</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>45676.6268865741</v>
+        <v>45679.818356481497</v>
       </c>
       <c r="C31" s="1">
-        <v>45676.635625000003</v>
+        <v>45679.8380555556</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>45677.596921296303</v>
+        <v>45684.932789351798</v>
       </c>
       <c r="C32" s="1">
-        <v>45677.600173611099</v>
+        <v>45684.941180555601</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>188</v>
+        <v>253</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>45677.992488425902</v>
+        <v>45679.731747685197</v>
       </c>
       <c r="C33" s="1">
-        <v>45678.003009259301</v>
+        <v>45679.736539351899</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>197</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="J33" s="2"/>
       <c r="K33" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>45679.731747685197</v>
+        <v>45675.735810185201</v>
       </c>
       <c r="C34" s="1">
-        <v>45679.736539351899</v>
+        <v>45675.751585648097</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>45679.818356481497</v>
+        <v>45679.824861111098</v>
       </c>
       <c r="C35" s="1">
-        <v>45679.8380555556</v>
+        <v>45679.839710648099</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1">
-        <v>45679.824861111098</v>
+        <v>45689.756655092599</v>
       </c>
       <c r="C36" s="1">
-        <v>45679.839710648099</v>
+        <v>45689.762974537</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>213</v>
+        <v>381</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>214</v>
+        <v>382</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45680.595185185201</v>
+        <v>45676.6268865741</v>
       </c>
       <c r="C37" s="1">
-        <v>45680.598993055602</v>
+        <v>45676.635625000003</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>45681.6726851852</v>
+        <v>45685.918356481503</v>
       </c>
       <c r="C38" s="1">
-        <v>45681.803356481498</v>
+        <v>45685.925451388903</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>225</v>
+        <v>275</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1">
-        <v>45682.550092592603</v>
+        <v>45687.523564814801</v>
       </c>
       <c r="C39" s="1">
-        <v>45682.553495370397</v>
+        <v>45687.533773148098</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>231</v>
+        <v>355</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1">
-        <v>45682.581944444399</v>
+        <v>45677.992488425902</v>
       </c>
       <c r="C40" s="1">
-        <v>45682.619467592602</v>
+        <v>45678.003009259301</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="K40" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>45683.842013888898</v>
+        <v>45686.681145833303</v>
       </c>
       <c r="C41" s="1">
-        <v>45683.844085648103</v>
+        <v>45686.686006944401</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>245</v>
+        <v>300</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>249</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>45684.932789351798</v>
+        <v>45686.690023148098</v>
       </c>
       <c r="C42" s="1">
-        <v>45684.941180555601</v>
+        <v>45686.697708333297</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>252</v>
+        <v>306</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
-        <v>45685.7008796296</v>
+        <v>45638.911053240743</v>
       </c>
       <c r="C43" s="1">
-        <v>45685.709444444401</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+        <v>45638.914398148147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>45685.849027777796</v>
+        <v>45638.91777777778</v>
       </c>
       <c r="C44" s="1">
-        <v>45685.871701388904</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J44" s="2"/>
-      <c r="K44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+        <v>45638.955289351848</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>45685.916608796302</v>
+        <v>45639.596550925926</v>
       </c>
       <c r="C45" s="1">
-        <v>45685.920983796299</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="J45" s="2"/>
-      <c r="K45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
+        <v>45639.606354166666</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>45685.918356481503</v>
+        <v>45639.660682870373</v>
       </c>
       <c r="C46" s="1">
-        <v>45685.925451388903</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J46" s="2"/>
-      <c r="K46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
+        <v>45639.67628472222</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>45685.979479166701</v>
+        <v>45639.818182870367</v>
       </c>
       <c r="C47" s="1">
-        <v>45685.985578703701</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J47" s="2"/>
-      <c r="K47" t="s">
-        <v>287</v>
+        <v>45639.819953703707</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45640.575208333335</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45640.577534722222</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45644.877951388888</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45644.884259259263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
-        <v>45686.658611111103</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45686.661909722199</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="F49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
-        <v>45686.671678240702</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45686.6856134259</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J49" s="2"/>
-      <c r="K49" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="G49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>45686.681145833303</v>
+        <v>45645.755289351851</v>
       </c>
       <c r="C50" s="1">
-        <v>45686.686006944401</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+        <v>45645.777824074074</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>45686.690023148098</v>
+        <v>45659.517291666663</v>
       </c>
       <c r="C51" s="1">
-        <v>45686.697708333297</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="J51" s="2"/>
-      <c r="K51" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
+        <v>45659.518333333333</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>45686.685358796298</v>
+        <v>45659.570057870369</v>
       </c>
       <c r="C52" s="1">
-        <v>45686.704814814802</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="J52" s="2"/>
-      <c r="K52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45659.570868055554</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>45686.719074074099</v>
+        <v>45662.086689814816</v>
       </c>
       <c r="C53" s="1">
-        <v>45686.719745370399</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J53" s="2"/>
-      <c r="K53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45662.095266203702</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>45686.760543981502</v>
+        <v>45663.410856481503</v>
       </c>
       <c r="C54" s="1">
-        <v>45686.764386574097</v>
+        <v>45663.417175925897</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45664.800914351901</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45664.804675925901</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45665.199467592603</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45665.212673611102</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45665.530451388899</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45665.533773148098</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45665.655520833301</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45665.657627314802</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45665.7163657407</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45665.724722222199</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45665.873993055597</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45665.881087962996</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="72" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45665.8913425926</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45665.903078703697</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45666.898900462998</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45666.902361111097</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="216" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45667.470844907402</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45667.474525463003</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45667.484849537002</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45667.490335648203</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>23</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45668.652233796303</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45668.655092592599</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>24</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45670.651388888902</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45670.655057870397</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" t="s">
+        <v>432</v>
+      </c>
+      <c r="F67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" t="s">
+        <v>420</v>
+      </c>
+      <c r="E68" t="s">
+        <v>433</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" t="s">
+        <v>429</v>
+      </c>
+      <c r="E69" t="s">
+        <v>434</v>
+      </c>
+      <c r="F69" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D70" t="s">
         <v>324</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E70" t="s">
         <v>325</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F70" t="s">
         <v>325</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="G70" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I70" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>407</v>
+      </c>
+      <c r="D71" t="s">
+        <v>421</v>
+      </c>
+      <c r="E71" t="s">
+        <v>435</v>
+      </c>
+      <c r="F71" t="s">
+        <v>435</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45686.810277777797</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45686.812164351897</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J55" s="2"/>
-      <c r="K55" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45686.838217592602</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45686.839953703697</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J56" s="2"/>
-      <c r="K56" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45686.955497685201</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45686.958634259303</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J57" s="2"/>
-      <c r="K57" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45686.974652777797</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45687.001516203702</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="J58" s="2"/>
-      <c r="K58" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45687.523564814801</v>
-      </c>
-      <c r="C59" s="1">
-        <v>45687.533773148098</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45688.7715046296</v>
-      </c>
-      <c r="C60" s="1">
-        <v>45688.7755092593</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45688.8500347222</v>
-      </c>
-      <c r="C61" s="1">
-        <v>45688.854733796303</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45689.728865740697</v>
-      </c>
-      <c r="C62" s="1">
-        <v>45689.734270833302</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="J62" s="2"/>
-      <c r="K62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45689.756655092599</v>
-      </c>
-      <c r="C63" s="1">
-        <v>45689.762974537</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45691.845543981501</v>
-      </c>
-      <c r="C64" s="1">
-        <v>45691.847048611096</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45692.672060185199</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45692.681608796302</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1">
-        <v>45708.988541666702</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45709.002928240698</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="J66" s="2"/>
-      <c r="K66" t="s">
-        <v>323</v>
-      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>408</v>
+      </c>
+      <c r="D72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E72" t="s">
+        <v>436</v>
+      </c>
+      <c r="F72" t="s">
+        <v>436</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>409</v>
+      </c>
+      <c r="D73" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" t="s">
+        <v>437</v>
+      </c>
+      <c r="F73" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>410</v>
+      </c>
+      <c r="D74" t="s">
+        <v>424</v>
+      </c>
+      <c r="E74" t="s">
+        <v>438</v>
+      </c>
+      <c r="F74" t="s">
+        <v>438</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D75" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" t="s">
+        <v>439</v>
+      </c>
+      <c r="F75" t="s">
+        <v>489</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>412</v>
+      </c>
+      <c r="D76" t="s">
+        <v>426</v>
+      </c>
+      <c r="E76" t="s">
+        <v>440</v>
+      </c>
+      <c r="F76" t="s">
+        <v>440</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" t="s">
+        <v>441</v>
+      </c>
+      <c r="F77" t="s">
+        <v>441</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>414</v>
+      </c>
+      <c r="D78" t="s">
+        <v>430</v>
+      </c>
+      <c r="E78" t="s">
+        <v>442</v>
+      </c>
+      <c r="F78" t="s">
+        <v>442</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D79" t="s">
+        <v>428</v>
+      </c>
+      <c r="E79" t="s">
+        <v>443</v>
+      </c>
+      <c r="F79" t="s">
+        <v>443</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>444</v>
+      </c>
+      <c r="F80" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>417</v>
+      </c>
+      <c r="D81" t="s">
+        <v>431</v>
+      </c>
+      <c r="E81" t="s">
+        <v>445</v>
+      </c>
+      <c r="F81" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="J81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{67CD7A44-159D-4C7A-9B81-17307B709C96}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{9D6E551B-997F-48EB-8C9E-A53925F3B417}"/>
-    <hyperlink ref="G12" r:id="rId3" xr:uid="{07BD7C90-A1AE-4DC7-8E79-6E8BF7E76DC7}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{48A6D8F2-B5F7-4CEF-AE8E-6E24DA520CC4}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{8B7F6E82-801C-4EA5-B647-5E3A9F28B61B}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{D3302BC2-0A47-4591-B7A4-C012DB8633AA}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{12B27C26-D91A-4782-BC38-AB91C466A2B0}"/>
-    <hyperlink ref="G8" r:id="rId8" xr:uid="{8323CB37-587D-4018-A226-79680E482692}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{A2C6CB7D-67CD-4EFC-A1A3-0AECEDE63AFE}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{A7A74194-09EC-4E68-B928-6D2ABE235510}"/>
-    <hyperlink ref="G5" r:id="rId11" xr:uid="{14C497F7-AFA7-4C0B-BAF6-C61AF1C7E9CE}"/>
-    <hyperlink ref="G4" r:id="rId12" xr:uid="{7637BA0E-659A-4EA4-8597-80FD10960506}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{1A00A650-8330-475A-92F4-C5D259615B17}"/>
-    <hyperlink ref="G15" r:id="rId14" xr:uid="{BA66E695-7D41-44EE-B62F-6E45267C3AF6}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{1EE70E98-9FA7-4803-8299-BFD2458AC4EB}"/>
-    <hyperlink ref="G18" r:id="rId16" xr:uid="{F9C60569-B5A0-4658-9563-06AC169A2749}"/>
-    <hyperlink ref="G17" r:id="rId17" xr:uid="{DA999EC4-CBC7-4F0E-8799-671B0C26C5EE}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{88BFA1BC-5730-401A-AEE0-92F0448C57F9}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{468E3791-9B50-4957-9EAD-F07840DD9905}"/>
-    <hyperlink ref="H3" r:id="rId20" xr:uid="{56AA4B91-105D-40E9-8905-72059EBE88D4}"/>
-    <hyperlink ref="G21" r:id="rId21" xr:uid="{8C97E1C1-8550-458F-9CF5-9AA70212349C}"/>
-    <hyperlink ref="G22" r:id="rId22" xr:uid="{FB35C317-2054-4379-918A-6FD9C5511D14}"/>
-    <hyperlink ref="G24" r:id="rId23" xr:uid="{58670DAE-4E4D-4877-84DD-F3850885AF19}"/>
-    <hyperlink ref="G23" r:id="rId24" xr:uid="{DC065989-5A78-4FAE-8D10-199CB1D6BD46}"/>
-    <hyperlink ref="G25" r:id="rId25" xr:uid="{5A95DFF7-C69D-4741-AE78-FC72DE2F368A}"/>
-    <hyperlink ref="H22" r:id="rId26" xr:uid="{462878B6-F3AF-4906-8121-6561DC51E589}"/>
-    <hyperlink ref="G37" r:id="rId27" xr:uid="{BB5F8C4A-D2F4-4318-8377-A78182D0840E}"/>
-    <hyperlink ref="G28" r:id="rId28" xr:uid="{94A3CB4A-54DC-4718-84AD-45C5C85BFFFE}"/>
-    <hyperlink ref="G39" r:id="rId29" xr:uid="{D451C43C-1664-40CF-821C-38AAA494820F}"/>
-    <hyperlink ref="G41" r:id="rId30" xr:uid="{53AD4703-ED47-4EFC-BD7E-F1BD04839A40}"/>
-    <hyperlink ref="G38" r:id="rId31" xr:uid="{F3DBC9A3-C327-440D-B552-DC5AC0325BD3}"/>
-    <hyperlink ref="G27" r:id="rId32" xr:uid="{02C07AF5-5146-49D5-A991-3C3A65EDF3ED}"/>
-    <hyperlink ref="G36" r:id="rId33" xr:uid="{F31EA65C-3767-41D6-BC10-EEBFE2ADAA54}"/>
-    <hyperlink ref="G29" r:id="rId34" xr:uid="{8D57BF8B-FEAC-4206-9A12-8DFA8415E804}"/>
-    <hyperlink ref="G35" r:id="rId35" xr:uid="{15B6994F-E83A-4EB5-9AAB-362C6424DBC2}"/>
-    <hyperlink ref="G40" r:id="rId36" xr:uid="{4976A7BA-87DC-4F6B-BF58-F9EAC939F50B}"/>
-    <hyperlink ref="G46" r:id="rId37" xr:uid="{F52D9D70-A037-4E71-8B44-D6DA54482F7A}"/>
-    <hyperlink ref="G44" r:id="rId38" xr:uid="{760E2DF9-3937-4CBB-AABE-BF17AD1D3A8B}"/>
-    <hyperlink ref="G31" r:id="rId39" xr:uid="{043BDF09-B2BD-496A-8C1E-458FF4AEB6AA}"/>
-    <hyperlink ref="G33" r:id="rId40" xr:uid="{967A354E-A109-43A2-B542-C8033AC3DFAF}"/>
-    <hyperlink ref="G32" r:id="rId41" xr:uid="{0E1AA698-42D6-4415-A96B-44530623A527}"/>
-    <hyperlink ref="G30" r:id="rId42" xr:uid="{4802AFEA-9DF6-4FE6-B894-ECB1270F6D35}"/>
-    <hyperlink ref="G34" r:id="rId43" xr:uid="{9D1FC8A5-4ED0-498F-B88C-D65E298E4290}"/>
-    <hyperlink ref="G42" r:id="rId44" xr:uid="{0187FC08-EA98-4D8E-AF94-5D2158FDCFE0}"/>
-    <hyperlink ref="G48" r:id="rId45" xr:uid="{6453E7CA-D78A-4770-9FD8-83A55CE3DBC0}"/>
-    <hyperlink ref="G43" r:id="rId46" xr:uid="{D25C2D7B-C3C7-4E26-A139-5F31C1B16DD5}"/>
-    <hyperlink ref="G47" r:id="rId47" xr:uid="{44C624C4-D3DE-44DC-9F1F-76C9B08D3D45}"/>
-    <hyperlink ref="G66" r:id="rId48" xr:uid="{AC90796D-52DA-42FB-88A1-61A7ECBF4408}"/>
+    <hyperlink ref="G43" r:id="rId1" xr:uid="{67CD7A44-159D-4C7A-9B81-17307B709C96}"/>
+    <hyperlink ref="G44" r:id="rId2" xr:uid="{9D6E551B-997F-48EB-8C9E-A53925F3B417}"/>
+    <hyperlink ref="G53" r:id="rId3" xr:uid="{07BD7C90-A1AE-4DC7-8E79-6E8BF7E76DC7}"/>
+    <hyperlink ref="G54" r:id="rId4" xr:uid="{48A6D8F2-B5F7-4CEF-AE8E-6E24DA520CC4}"/>
+    <hyperlink ref="G52" r:id="rId5" xr:uid="{8B7F6E82-801C-4EA5-B647-5E3A9F28B61B}"/>
+    <hyperlink ref="G51" r:id="rId6" xr:uid="{D3302BC2-0A47-4591-B7A4-C012DB8633AA}"/>
+    <hyperlink ref="G50" r:id="rId7" xr:uid="{12B27C26-D91A-4782-BC38-AB91C466A2B0}"/>
+    <hyperlink ref="G49" r:id="rId8" xr:uid="{8323CB37-587D-4018-A226-79680E482692}"/>
+    <hyperlink ref="G48" r:id="rId9" xr:uid="{A2C6CB7D-67CD-4EFC-A1A3-0AECEDE63AFE}"/>
+    <hyperlink ref="G47" r:id="rId10" xr:uid="{A7A74194-09EC-4E68-B928-6D2ABE235510}"/>
+    <hyperlink ref="G46" r:id="rId11" xr:uid="{14C497F7-AFA7-4C0B-BAF6-C61AF1C7E9CE}"/>
+    <hyperlink ref="G45" r:id="rId12" xr:uid="{7637BA0E-659A-4EA4-8597-80FD10960506}"/>
+    <hyperlink ref="G55" r:id="rId13" xr:uid="{1A00A650-8330-475A-92F4-C5D259615B17}"/>
+    <hyperlink ref="G56" r:id="rId14" xr:uid="{BA66E695-7D41-44EE-B62F-6E45267C3AF6}"/>
+    <hyperlink ref="G57" r:id="rId15" xr:uid="{1EE70E98-9FA7-4803-8299-BFD2458AC4EB}"/>
+    <hyperlink ref="G59" r:id="rId16" xr:uid="{F9C60569-B5A0-4658-9563-06AC169A2749}"/>
+    <hyperlink ref="G58" r:id="rId17" xr:uid="{DA999EC4-CBC7-4F0E-8799-671B0C26C5EE}"/>
+    <hyperlink ref="G60" r:id="rId18" xr:uid="{88BFA1BC-5730-401A-AEE0-92F0448C57F9}"/>
+    <hyperlink ref="G61" r:id="rId19" xr:uid="{468E3791-9B50-4957-9EAD-F07840DD9905}"/>
+    <hyperlink ref="H44" r:id="rId20" xr:uid="{56AA4B91-105D-40E9-8905-72059EBE88D4}"/>
+    <hyperlink ref="G62" r:id="rId21" xr:uid="{8C97E1C1-8550-458F-9CF5-9AA70212349C}"/>
+    <hyperlink ref="G63" r:id="rId22" xr:uid="{FB35C317-2054-4379-918A-6FD9C5511D14}"/>
+    <hyperlink ref="G65" r:id="rId23" xr:uid="{58670DAE-4E4D-4877-84DD-F3850885AF19}"/>
+    <hyperlink ref="G64" r:id="rId24" xr:uid="{DC065989-5A78-4FAE-8D10-199CB1D6BD46}"/>
+    <hyperlink ref="G66" r:id="rId25" xr:uid="{5A95DFF7-C69D-4741-AE78-FC72DE2F368A}"/>
+    <hyperlink ref="H63" r:id="rId26" xr:uid="{462878B6-F3AF-4906-8121-6561DC51E589}"/>
+    <hyperlink ref="G3" r:id="rId27" xr:uid="{BB5F8C4A-D2F4-4318-8377-A78182D0840E}"/>
+    <hyperlink ref="G24" r:id="rId28" xr:uid="{94A3CB4A-54DC-4718-84AD-45C5C85BFFFE}"/>
+    <hyperlink ref="G8" r:id="rId29" xr:uid="{D451C43C-1664-40CF-821C-38AAA494820F}"/>
+    <hyperlink ref="G4" r:id="rId30" xr:uid="{53AD4703-ED47-4EFC-BD7E-F1BD04839A40}"/>
+    <hyperlink ref="G26" r:id="rId31" xr:uid="{F3DBC9A3-C327-440D-B552-DC5AC0325BD3}"/>
+    <hyperlink ref="G25" r:id="rId32" xr:uid="{02C07AF5-5146-49D5-A991-3C3A65EDF3ED}"/>
+    <hyperlink ref="G35" r:id="rId33" xr:uid="{F31EA65C-3767-41D6-BC10-EEBFE2ADAA54}"/>
+    <hyperlink ref="G34" r:id="rId34" xr:uid="{8D57BF8B-FEAC-4206-9A12-8DFA8415E804}"/>
+    <hyperlink ref="G31" r:id="rId35" xr:uid="{15B6994F-E83A-4EB5-9AAB-362C6424DBC2}"/>
+    <hyperlink ref="G13" r:id="rId36" xr:uid="{4976A7BA-87DC-4F6B-BF58-F9EAC939F50B}"/>
+    <hyperlink ref="G38" r:id="rId37" xr:uid="{F52D9D70-A037-4E71-8B44-D6DA54482F7A}"/>
+    <hyperlink ref="G27" r:id="rId38" xr:uid="{760E2DF9-3937-4CBB-AABE-BF17AD1D3A8B}"/>
+    <hyperlink ref="G37" r:id="rId39" xr:uid="{043BDF09-B2BD-496A-8C1E-458FF4AEB6AA}"/>
+    <hyperlink ref="G40" r:id="rId40" xr:uid="{967A354E-A109-43A2-B542-C8033AC3DFAF}"/>
+    <hyperlink ref="G28" r:id="rId41" xr:uid="{0E1AA698-42D6-4415-A96B-44530623A527}"/>
+    <hyperlink ref="G23" r:id="rId42" xr:uid="{4802AFEA-9DF6-4FE6-B894-ECB1270F6D35}"/>
+    <hyperlink ref="G33" r:id="rId43" xr:uid="{9D1FC8A5-4ED0-498F-B88C-D65E298E4290}"/>
+    <hyperlink ref="G32" r:id="rId44" xr:uid="{0187FC08-EA98-4D8E-AF94-5D2158FDCFE0}"/>
+    <hyperlink ref="G2" r:id="rId45" xr:uid="{6453E7CA-D78A-4770-9FD8-83A55CE3DBC0}"/>
+    <hyperlink ref="G6" r:id="rId46" xr:uid="{D25C2D7B-C3C7-4E26-A139-5F31C1B16DD5}"/>
+    <hyperlink ref="G19" r:id="rId47" xr:uid="{44C624C4-D3DE-44DC-9F1F-76C9B08D3D45}"/>
+    <hyperlink ref="G22" r:id="rId48" xr:uid="{AC90796D-52DA-42FB-88A1-61A7ECBF4408}"/>
+    <hyperlink ref="H11" r:id="rId49" xr:uid="{5E39A6B1-020F-4D70-8547-BD80068994AD}"/>
+    <hyperlink ref="H23" r:id="rId50" xr:uid="{9E2E8F65-A9B3-49F2-8F64-D29DBE4E02FC}"/>
+    <hyperlink ref="H28" r:id="rId51" xr:uid="{6172FC36-6AFE-47AE-954D-8F45FE05E6AA}"/>
+    <hyperlink ref="H32" r:id="rId52" xr:uid="{A82EEFC3-966F-41E4-8B80-1D5962557BB7}"/>
+    <hyperlink ref="D81" r:id="rId53" xr:uid="{0CEFF791-E95D-4ABA-A862-DF8D25286141}"/>
+    <hyperlink ref="G67" r:id="rId54" xr:uid="{0A8DB93B-F23F-41D3-B86D-4E7800374184}"/>
+    <hyperlink ref="G68" r:id="rId55" xr:uid="{A4702360-8338-4834-BBB3-4DA3784826ED}"/>
+    <hyperlink ref="G69" r:id="rId56" xr:uid="{4EFD3C91-6A9B-47B1-8FE5-28B1BF9F1758}"/>
+    <hyperlink ref="G70" r:id="rId57" xr:uid="{3377676B-ABF0-4B52-98D1-674FFCFF5E65}"/>
+    <hyperlink ref="G71" r:id="rId58" xr:uid="{0ADCBA34-E341-4D56-BA72-1CFCB176C002}"/>
+    <hyperlink ref="G72" r:id="rId59" xr:uid="{99EFED3C-1D54-4D1C-951E-2BB803D11455}"/>
+    <hyperlink ref="G73" r:id="rId60" xr:uid="{E1CF2291-F7F8-43BB-BAE3-6CA8E28E69DC}"/>
+    <hyperlink ref="G74" r:id="rId61" xr:uid="{61C89F6A-E0C7-481B-B046-9070DFEAA7B0}"/>
+    <hyperlink ref="G75" r:id="rId62" xr:uid="{EED23829-C10A-4AC4-A8C4-7E5E0BC04332}"/>
+    <hyperlink ref="G76" r:id="rId63" xr:uid="{9F47E65B-ADD3-4696-9F22-4616E13ACA8C}"/>
+    <hyperlink ref="G77" r:id="rId64" xr:uid="{003A8779-C298-46D9-99C9-B4E1BD48DE13}"/>
+    <hyperlink ref="G78" r:id="rId65" xr:uid="{C1801A5C-C80E-4A15-BA09-6ADCEA403351}"/>
+    <hyperlink ref="G79" r:id="rId66" xr:uid="{781A5559-115C-4236-B90B-6370F8DDE613}"/>
+    <hyperlink ref="G80" r:id="rId67" xr:uid="{A5CC7275-040F-47EC-97C7-EF5675DBA84C}"/>
+    <hyperlink ref="G81" r:id="rId68" xr:uid="{1F30A8EE-EABA-4782-B4C9-AF65846F2783}"/>
+    <hyperlink ref="H67" r:id="rId69" xr:uid="{53FA6DF3-8C37-48D4-8816-1E80C8D579E0}"/>
+    <hyperlink ref="H68" r:id="rId70" xr:uid="{9281E405-2B8F-4887-9335-CBDC6DA92955}"/>
+    <hyperlink ref="H69" r:id="rId71" xr:uid="{32E88D78-E9D5-4F1C-9310-49AD01D6A7F4}"/>
+    <hyperlink ref="H70" r:id="rId72" xr:uid="{7CA3B2D0-B930-43B4-8BE5-E88FBB1C7979}"/>
+    <hyperlink ref="H71" r:id="rId73" display="http://linkedin.com/in/cleo-buenaventura" xr:uid="{AD76BCF3-33C1-4BF3-A3C2-635342E614A9}"/>
+    <hyperlink ref="H72" r:id="rId74" xr:uid="{CADE8B5C-A2FF-48E1-8E62-A8B2727C383F}"/>
+    <hyperlink ref="H73" r:id="rId75" xr:uid="{99C2B4AC-06EC-445C-AD10-96989F1C25E0}"/>
+    <hyperlink ref="H74" r:id="rId76" xr:uid="{86078F22-8AF1-44CD-BEAC-01233F855721}"/>
+    <hyperlink ref="H75" r:id="rId77" display="http://www.linkedin.com/in/suhana-shrestha" xr:uid="{53C26434-110F-4AF6-8CD6-9A93C8475C92}"/>
+    <hyperlink ref="H76" r:id="rId78" xr:uid="{6F73D0A1-C18C-438B-AC1D-94521C25804F}"/>
+    <hyperlink ref="H77" r:id="rId79" display="http://www.linkedin.com/in/tomisin-ojaokomo" xr:uid="{88EDD760-8E2F-43EC-9B0D-2FAD141AA86E}"/>
+    <hyperlink ref="H78" r:id="rId80" xr:uid="{F51A016D-E482-4ABD-94F9-394B4880D096}"/>
+    <hyperlink ref="H79" r:id="rId81" display="http://www.linkedin.com/in/utpal-prajapati-191a391a8" xr:uid="{B173318C-C519-4672-A834-1FF1FFF1A8E0}"/>
+    <hyperlink ref="H80" r:id="rId82" display="http://www.linkedin.com/in/num-praditsakul-67a629132" xr:uid="{CB8C2458-2E38-49F6-8FB4-98E9EAEE0542}"/>
+    <hyperlink ref="H81" r:id="rId83" xr:uid="{6FE58E59-576D-40AD-821D-BAD2429E40BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId85"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4217,15 +4917,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCEB03D-F7DE-46FE-A998-FE1621B600C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48915BB9-BEB1-4266-8171-1A9F59A00354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15444" yWindow="4344" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15228" yWindow="2352" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="483">
   <si>
     <t>Id</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Krishita</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-12-16%20at%2016.58.52_594aaaa_Krishita%20Nirmesh%20Vak.jpg</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/krishita-vakil-b37b53188/</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t>Rahul Amish Mamania</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-10-30%20at%2023.19.35_Rahul%20Amish%20Mamania.jpeg</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/rahul-mamania/</t>
@@ -1284,9 +1278,6 @@
     <t>2025-3-3 下午09:08:54</t>
   </si>
   <si>
-    <t>2025-3-3 下午09:15:45</t>
-  </si>
-  <si>
     <t>2025-3-3 下午09:16:25</t>
   </si>
   <si>
@@ -1312,9 +1303,6 @@
   </si>
   <si>
     <t>2025-3-4 下午06:46:26</t>
-  </si>
-  <si>
-    <t>2025-3-5 下午01:33:09</t>
   </si>
   <si>
     <t>2025-3-5 下午09:19:39</t>
@@ -1350,9 +1338,6 @@
     <t>aa8@myseneca.ca</t>
   </si>
   <si>
-    <t>cjbuenaventura@myseneca.ca</t>
-  </si>
-  <si>
     <t>vsavchyn@myseneca.ca</t>
   </si>
   <si>
@@ -1420,9 +1405,6 @@
     <t>Utpal Manishchandra Prajapati</t>
   </si>
   <si>
-    <t>Num</t>
-  </si>
-  <si>
     <t>Siddhi Patel</t>
   </si>
   <si>
@@ -1435,9 +1417,6 @@
     <t>https://drive.google.com/open?id=1omRCdXrgpM0zmuPKzd45X5cy3P99Jv2V</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
   </si>
   <si>
@@ -1450,9 +1429,6 @@
     <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
   </si>
   <si>
@@ -1465,9 +1441,6 @@
     <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=14kBdmcWhUM5qHieKgrQNHfgUGK-CPkb-</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
   </si>
   <si>
@@ -1507,9 +1480,6 @@
     <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/num-praditsakul-67a629132</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/siddhipatel10/</t>
   </si>
   <si>
@@ -1519,9 +1489,6 @@
     <t>Software Development Team Lead</t>
   </si>
   <si>
-    <t>Senior Consultant</t>
-  </si>
-  <si>
     <t>Backend Tester: Tested backend API with Jest and Supertest. Sometimes tested front-end.</t>
   </si>
   <si>
@@ -1538,9 +1505,6 @@
   </si>
   <si>
     <t>student success officer</t>
-  </si>
-  <si>
-    <t>QA/QC Manager</t>
   </si>
   <si>
     <t>Data Analytics</t>
@@ -1559,6 +1523,26 @@
   </si>
   <si>
     <t>Fenil Mehta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjbuenaventura@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleo Buenaventura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1685,8 +1669,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K81" totalsRowShown="0">
-  <autoFilter ref="A1:K81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K79" totalsRowShown="0">
+  <autoFilter ref="A1:K79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2087,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2148,26 +2132,26 @@
         <v>45686.661909722199</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2181,26 +2165,26 @@
         <v>45680.598993055602</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2214,28 +2198,28 @@
         <v>45683.844085648103</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" t="s">
         <v>248</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2249,26 +2233,26 @@
         <v>45686.812164351897</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,26 +2266,26 @@
         <v>45685.709444444401</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2315,26 +2299,26 @@
         <v>45686.6856134259</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2348,26 +2332,26 @@
         <v>45682.553495370397</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2381,26 +2365,26 @@
         <v>45686.958634259303</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>347</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2414,26 +2398,26 @@
         <v>45687.001516203702</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="H10" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2447,26 +2431,26 @@
         <v>45691.847048611096</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>389</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="360" x14ac:dyDescent="0.25">
@@ -2480,28 +2464,28 @@
         <v>45675.022870370398</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="K12" t="s">
         <v>149</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2515,26 +2499,26 @@
         <v>45682.619467592602</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,28 +2532,28 @@
         <v>45688.854733796303</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="H14" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="K14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2583,26 +2567,26 @@
         <v>45686.839953703697</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2616,26 +2600,26 @@
         <v>45686.764386574097</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="H16" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2649,26 +2633,26 @@
         <v>45688.7755092593</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>366</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2682,26 +2666,26 @@
         <v>45689.734270833302</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="H18" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>376</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -2715,26 +2699,26 @@
         <v>45685.985578703701</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2748,26 +2732,26 @@
         <v>45686.719745370399</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="H20" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -2781,26 +2765,26 @@
         <v>45692.681608796302</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="H21" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="5" t="s">
         <v>395</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2814,26 +2798,26 @@
         <v>45709.002928240698</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="5" t="s">
         <v>401</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -2847,28 +2831,28 @@
         <v>45675.769027777802</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="K23" t="s">
         <v>174</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2882,26 +2866,26 @@
         <v>45675.693761574097</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2915,26 +2899,26 @@
         <v>45675.401875000003</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2948,26 +2932,26 @@
         <v>45681.803356481498</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2981,26 +2965,26 @@
         <v>45685.871701388904</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I27" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3014,26 +2998,26 @@
         <v>45677.600173611099</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3047,26 +3031,26 @@
         <v>45685.920983796299</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -3080,26 +3064,26 @@
         <v>45686.704814814802</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="H30" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>317</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -3113,26 +3097,26 @@
         <v>45679.8380555556</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="I31" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3146,26 +3130,26 @@
         <v>45684.941180555601</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3179,26 +3163,26 @@
         <v>45679.736539351899</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="I33" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
@@ -3212,26 +3196,26 @@
         <v>45675.751585648097</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>168</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3245,26 +3229,26 @@
         <v>45679.839710648099</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="G35" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3278,26 +3262,26 @@
         <v>45689.762974537</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="G36" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -3311,26 +3295,26 @@
         <v>45676.635625000003</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3344,26 +3328,26 @@
         <v>45685.925451388903</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="H38" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="I38" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -3377,26 +3361,26 @@
         <v>45687.533773148098</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="H39" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
@@ -3410,28 +3394,28 @@
         <v>45678.003009259301</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="K40" t="s">
         <v>196</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K40" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -3445,26 +3429,26 @@
         <v>45686.686006944401</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="H41" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="I41" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3478,26 +3462,26 @@
         <v>45686.697708333297</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="G42" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3851,13 +3835,13 @@
         <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="J54" s="2"/>
     </row>
@@ -3872,22 +3856,22 @@
         <v>45664.804675925901</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J55" s="2"/>
     </row>
@@ -3902,22 +3886,22 @@
         <v>45665.212673611102</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -3932,22 +3916,22 @@
         <v>45665.533773148098</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="I57" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="J57" s="2"/>
     </row>
@@ -3962,22 +3946,22 @@
         <v>45665.657627314802</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="I58" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="J58" s="2"/>
     </row>
@@ -3992,25 +3976,25 @@
         <v>45665.724722222199</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="G59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="I59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -4024,22 +4008,22 @@
         <v>45665.881087962996</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="G60" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="I60" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="J60" s="2"/>
     </row>
@@ -4054,22 +4038,22 @@
         <v>45665.903078703697</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="I61" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="J61" s="2"/>
     </row>
@@ -4084,22 +4068,22 @@
         <v>45666.902361111097</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="J62" s="2"/>
     </row>
@@ -4114,22 +4098,22 @@
         <v>45667.474525463003</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="H63" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="I63" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="J63" s="2"/>
     </row>
@@ -4144,22 +4128,22 @@
         <v>45667.490335648203</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="I64" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="J64" s="2"/>
     </row>
@@ -4174,22 +4158,22 @@
         <v>45668.655092592599</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="I65" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="J65" s="2"/>
     </row>
@@ -4204,386 +4188,338 @@
         <v>45670.655057870397</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="G66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="I66" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D67" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E67" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F67" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D68" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D69" t="s">
+        <v>424</v>
+      </c>
+      <c r="E69" t="s">
         <v>429</v>
       </c>
-      <c r="E69" t="s">
-        <v>434</v>
-      </c>
       <c r="F69" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
+        <v>404</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E70" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>405</v>
+      </c>
+      <c r="D71" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" t="s">
+        <v>431</v>
+      </c>
+      <c r="F71" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>406</v>
       </c>
-      <c r="D70" t="s">
-        <v>324</v>
-      </c>
-      <c r="E70" t="s">
-        <v>325</v>
-      </c>
-      <c r="F70" t="s">
-        <v>325</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>407</v>
-      </c>
-      <c r="D71" t="s">
-        <v>421</v>
-      </c>
-      <c r="E71" t="s">
-        <v>435</v>
-      </c>
-      <c r="F71" t="s">
-        <v>435</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>408</v>
-      </c>
       <c r="D72" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F72" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
+        <v>407</v>
+      </c>
+      <c r="D73" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" t="s">
+        <v>433</v>
+      </c>
+      <c r="F73" t="s">
+        <v>433</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>408</v>
+      </c>
+      <c r="D74" t="s">
+        <v>420</v>
+      </c>
+      <c r="E74" t="s">
+        <v>434</v>
+      </c>
+      <c r="F74" t="s">
+        <v>477</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
         <v>409</v>
       </c>
-      <c r="D73" t="s">
-        <v>423</v>
-      </c>
-      <c r="E73" t="s">
-        <v>437</v>
-      </c>
-      <c r="F73" t="s">
-        <v>437</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>410</v>
-      </c>
-      <c r="D74" t="s">
-        <v>424</v>
-      </c>
-      <c r="E74" t="s">
-        <v>438</v>
-      </c>
-      <c r="F74" t="s">
-        <v>438</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>411</v>
-      </c>
       <c r="D75" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E75" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F75" t="s">
-        <v>489</v>
+        <v>435</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D76" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F76" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E77" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F77" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E78" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F78" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F79" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
-        <v>444</v>
-      </c>
-      <c r="F80" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>417</v>
-      </c>
-      <c r="D81" t="s">
-        <v>431</v>
-      </c>
-      <c r="E81" t="s">
-        <v>445</v>
-      </c>
-      <c r="F81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="I81" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="J81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4640,42 +4576,39 @@
     <hyperlink ref="H23" r:id="rId50" xr:uid="{9E2E8F65-A9B3-49F2-8F64-D29DBE4E02FC}"/>
     <hyperlink ref="H28" r:id="rId51" xr:uid="{6172FC36-6AFE-47AE-954D-8F45FE05E6AA}"/>
     <hyperlink ref="H32" r:id="rId52" xr:uid="{A82EEFC3-966F-41E4-8B80-1D5962557BB7}"/>
-    <hyperlink ref="D81" r:id="rId53" xr:uid="{0CEFF791-E95D-4ABA-A862-DF8D25286141}"/>
+    <hyperlink ref="D79" r:id="rId53" xr:uid="{0CEFF791-E95D-4ABA-A862-DF8D25286141}"/>
     <hyperlink ref="G67" r:id="rId54" xr:uid="{0A8DB93B-F23F-41D3-B86D-4E7800374184}"/>
     <hyperlink ref="G68" r:id="rId55" xr:uid="{A4702360-8338-4834-BBB3-4DA3784826ED}"/>
     <hyperlink ref="G69" r:id="rId56" xr:uid="{4EFD3C91-6A9B-47B1-8FE5-28B1BF9F1758}"/>
-    <hyperlink ref="G70" r:id="rId57" xr:uid="{3377676B-ABF0-4B52-98D1-674FFCFF5E65}"/>
-    <hyperlink ref="G71" r:id="rId58" xr:uid="{0ADCBA34-E341-4D56-BA72-1CFCB176C002}"/>
-    <hyperlink ref="G72" r:id="rId59" xr:uid="{99EFED3C-1D54-4D1C-951E-2BB803D11455}"/>
-    <hyperlink ref="G73" r:id="rId60" xr:uid="{E1CF2291-F7F8-43BB-BAE3-6CA8E28E69DC}"/>
-    <hyperlink ref="G74" r:id="rId61" xr:uid="{61C89F6A-E0C7-481B-B046-9070DFEAA7B0}"/>
-    <hyperlink ref="G75" r:id="rId62" xr:uid="{EED23829-C10A-4AC4-A8C4-7E5E0BC04332}"/>
-    <hyperlink ref="G76" r:id="rId63" xr:uid="{9F47E65B-ADD3-4696-9F22-4616E13ACA8C}"/>
-    <hyperlink ref="G77" r:id="rId64" xr:uid="{003A8779-C298-46D9-99C9-B4E1BD48DE13}"/>
-    <hyperlink ref="G78" r:id="rId65" xr:uid="{C1801A5C-C80E-4A15-BA09-6ADCEA403351}"/>
-    <hyperlink ref="G79" r:id="rId66" xr:uid="{781A5559-115C-4236-B90B-6370F8DDE613}"/>
-    <hyperlink ref="G80" r:id="rId67" xr:uid="{A5CC7275-040F-47EC-97C7-EF5675DBA84C}"/>
-    <hyperlink ref="G81" r:id="rId68" xr:uid="{1F30A8EE-EABA-4782-B4C9-AF65846F2783}"/>
-    <hyperlink ref="H67" r:id="rId69" xr:uid="{53FA6DF3-8C37-48D4-8816-1E80C8D579E0}"/>
-    <hyperlink ref="H68" r:id="rId70" xr:uid="{9281E405-2B8F-4887-9335-CBDC6DA92955}"/>
-    <hyperlink ref="H69" r:id="rId71" xr:uid="{32E88D78-E9D5-4F1C-9310-49AD01D6A7F4}"/>
-    <hyperlink ref="H70" r:id="rId72" xr:uid="{7CA3B2D0-B930-43B4-8BE5-E88FBB1C7979}"/>
-    <hyperlink ref="H71" r:id="rId73" display="http://linkedin.com/in/cleo-buenaventura" xr:uid="{AD76BCF3-33C1-4BF3-A3C2-635342E614A9}"/>
-    <hyperlink ref="H72" r:id="rId74" xr:uid="{CADE8B5C-A2FF-48E1-8E62-A8B2727C383F}"/>
-    <hyperlink ref="H73" r:id="rId75" xr:uid="{99C2B4AC-06EC-445C-AD10-96989F1C25E0}"/>
-    <hyperlink ref="H74" r:id="rId76" xr:uid="{86078F22-8AF1-44CD-BEAC-01233F855721}"/>
-    <hyperlink ref="H75" r:id="rId77" display="http://www.linkedin.com/in/suhana-shrestha" xr:uid="{53C26434-110F-4AF6-8CD6-9A93C8475C92}"/>
-    <hyperlink ref="H76" r:id="rId78" xr:uid="{6F73D0A1-C18C-438B-AC1D-94521C25804F}"/>
-    <hyperlink ref="H77" r:id="rId79" display="http://www.linkedin.com/in/tomisin-ojaokomo" xr:uid="{88EDD760-8E2F-43EC-9B0D-2FAD141AA86E}"/>
-    <hyperlink ref="H78" r:id="rId80" xr:uid="{F51A016D-E482-4ABD-94F9-394B4880D096}"/>
-    <hyperlink ref="H79" r:id="rId81" display="http://www.linkedin.com/in/utpal-prajapati-191a391a8" xr:uid="{B173318C-C519-4672-A834-1FF1FFF1A8E0}"/>
-    <hyperlink ref="H80" r:id="rId82" display="http://www.linkedin.com/in/num-praditsakul-67a629132" xr:uid="{CB8C2458-2E38-49F6-8FB4-98E9EAEE0542}"/>
-    <hyperlink ref="H81" r:id="rId83" xr:uid="{6FE58E59-576D-40AD-821D-BAD2429E40BC}"/>
+    <hyperlink ref="G70" r:id="rId57" xr:uid="{0ADCBA34-E341-4D56-BA72-1CFCB176C002}"/>
+    <hyperlink ref="G71" r:id="rId58" xr:uid="{99EFED3C-1D54-4D1C-951E-2BB803D11455}"/>
+    <hyperlink ref="G72" r:id="rId59" xr:uid="{E1CF2291-F7F8-43BB-BAE3-6CA8E28E69DC}"/>
+    <hyperlink ref="G73" r:id="rId60" xr:uid="{61C89F6A-E0C7-481B-B046-9070DFEAA7B0}"/>
+    <hyperlink ref="G74" r:id="rId61" xr:uid="{EED23829-C10A-4AC4-A8C4-7E5E0BC04332}"/>
+    <hyperlink ref="G75" r:id="rId62" xr:uid="{9F47E65B-ADD3-4696-9F22-4616E13ACA8C}"/>
+    <hyperlink ref="G76" r:id="rId63" xr:uid="{003A8779-C298-46D9-99C9-B4E1BD48DE13}"/>
+    <hyperlink ref="G77" r:id="rId64" xr:uid="{C1801A5C-C80E-4A15-BA09-6ADCEA403351}"/>
+    <hyperlink ref="G78" r:id="rId65" xr:uid="{781A5559-115C-4236-B90B-6370F8DDE613}"/>
+    <hyperlink ref="G79" r:id="rId66" xr:uid="{1F30A8EE-EABA-4782-B4C9-AF65846F2783}"/>
+    <hyperlink ref="H67" r:id="rId67" xr:uid="{53FA6DF3-8C37-48D4-8816-1E80C8D579E0}"/>
+    <hyperlink ref="H68" r:id="rId68" xr:uid="{9281E405-2B8F-4887-9335-CBDC6DA92955}"/>
+    <hyperlink ref="H69" r:id="rId69" xr:uid="{32E88D78-E9D5-4F1C-9310-49AD01D6A7F4}"/>
+    <hyperlink ref="H70" r:id="rId70" display="http://linkedin.com/in/cleo-buenaventura" xr:uid="{AD76BCF3-33C1-4BF3-A3C2-635342E614A9}"/>
+    <hyperlink ref="H71" r:id="rId71" xr:uid="{CADE8B5C-A2FF-48E1-8E62-A8B2727C383F}"/>
+    <hyperlink ref="H72" r:id="rId72" xr:uid="{99C2B4AC-06EC-445C-AD10-96989F1C25E0}"/>
+    <hyperlink ref="H73" r:id="rId73" xr:uid="{86078F22-8AF1-44CD-BEAC-01233F855721}"/>
+    <hyperlink ref="H74" r:id="rId74" display="http://www.linkedin.com/in/suhana-shrestha" xr:uid="{53C26434-110F-4AF6-8CD6-9A93C8475C92}"/>
+    <hyperlink ref="H75" r:id="rId75" xr:uid="{6F73D0A1-C18C-438B-AC1D-94521C25804F}"/>
+    <hyperlink ref="H76" r:id="rId76" display="http://www.linkedin.com/in/tomisin-ojaokomo" xr:uid="{88EDD760-8E2F-43EC-9B0D-2FAD141AA86E}"/>
+    <hyperlink ref="H77" r:id="rId77" xr:uid="{F51A016D-E482-4ABD-94F9-394B4880D096}"/>
+    <hyperlink ref="H78" r:id="rId78" display="http://www.linkedin.com/in/utpal-prajapati-191a391a8" xr:uid="{B173318C-C519-4672-A834-1FF1FFF1A8E0}"/>
+    <hyperlink ref="H79" r:id="rId79" xr:uid="{6FE58E59-576D-40AD-821D-BAD2429E40BC}"/>
+    <hyperlink ref="D70" r:id="rId80" xr:uid="{807D2B8C-80E4-4EBE-A7F0-AC43AD49708C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
   <tableParts count="1">
-    <tablePart r:id="rId85"/>
+    <tablePart r:id="rId82"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4692,15 +4625,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -4913,32 +4837,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4955,4 +4880,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48915BB9-BEB1-4266-8171-1A9F59A00354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A624D081-3D6B-49C0-9BBE-487D8B810EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15228" yWindow="2352" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22584" yWindow="2532" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="527">
   <si>
     <t>Id</t>
   </si>
@@ -454,9 +454,6 @@
     <t>Justin Chu</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM_Justin%20Chu.jpeg</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/justinhaoyuchu/</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>I'm currently a student of Project Management - IT and joined the Operation Team Hackathon 2025 to contribute on tasks coordination, resolving issues, and maintaining the operational excellence.</t>
   </si>
   <si>
-    <t>PMC250</t>
-  </si>
-  <si>
     <t>apal21@myseneca.ca</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">Partner Experience </t>
-  </si>
-  <si>
-    <t>PMC IT</t>
   </si>
   <si>
     <t>sthing2@myseneca.ca</t>
@@ -575,15 +566,9 @@
     <t>https://www.linkedin.com/in/syedshahzebsaleem/</t>
   </si>
   <si>
-    <t>I am with the Student Success Department at Seneca College, supporting the Hackathon 2025 event. My role involves guiding participants, facilitating collaboration, and ensuring a smooth and engaging experience throughout the event. With a background in business development and strong communication skills, I aim to foster innovation and teamwork among students.</t>
-  </si>
-  <si>
     <t>I am a friendly, fun-loving, and approachable individual who thrives on building strong connections and creating a positive environment. Known for my excellent communication and interpersonal skills, I enjoy collaborating with others and supporting their growth. My energetic nature, combined with my passion for innovation and teamwork, makes me well-suited to help participants feel motivated and engaged throughout Hackathon 2025.</t>
   </si>
   <si>
-    <t xml:space="preserve">PMC </t>
-  </si>
-  <si>
     <t>wdifernando@myseneca.ca</t>
   </si>
   <si>
@@ -593,18 +578,12 @@
     <t>Dinithi Fernando</t>
   </si>
   <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202025-01-19%20at%203.10.53%20PM_W%20Dinithi%20Indrachaya.jpeg</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/dinithi-fernando-972029136</t>
   </si>
   <si>
     <t>I'm a part of the Student Success Team to support participants in Hackathon 2025 by providing insights, brainstorming ideas, and answering questions to help teams innovate and succeed in their projects.</t>
   </si>
   <si>
-    <t>Project Management in IT (PMC)</t>
-  </si>
-  <si>
     <t>ameya-mangesh.kokatay@senecapolytechnic.ca</t>
   </si>
   <si>
@@ -621,9 +600,6 @@
   </si>
   <si>
     <t>Student Success Officer</t>
-  </si>
-  <si>
-    <t>Project Management – Information Technology (PMC)</t>
   </si>
   <si>
     <t>rskolawole@myseneca.ca</t>
@@ -670,9 +646,6 @@
     <t>My role involves assisting in planning and organizing initiatives, addressing student needs, and fostering a sense of community to help students thrive academically and personally. I am passionate about empowering others and ensuring every student has access to the resources and opportunities they need to succeed.</t>
   </si>
   <si>
-    <t>Project Management in Information Technology (PMC)</t>
-  </si>
-  <si>
     <t>smaharjan23@myseneca.ca</t>
   </si>
   <si>
@@ -685,9 +658,6 @@
     <t>www.linkedin.com/in/sanammaharjan01</t>
   </si>
   <si>
-    <t>Currently pursuing Project Management - IT at Seneca College, I have a strong foundation in computing and database application development and am eager to gain experience in operational management. As the Operations Officer for Hackathon 2025, I manage event logistics, coordinate resources, ensure schedule compliance, and support the seamless execution of all operational activities. I focus on fostering collaboration, efficiency, and innovation to contribute to the hackathon's success.</t>
-  </si>
-  <si>
     <t>Project Management - IT</t>
   </si>
   <si>
@@ -758,799 +728,938 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/jay-vakil/</t>
+  </si>
+  <si>
+    <t>Computer Proramming And Analysis</t>
+  </si>
+  <si>
+    <t>amedeiros9@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Andrew Medeiros</t>
+  </si>
+  <si>
+    <t>Andrew M</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20240304_141004_Andrew%20Medeiros.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/andrew-medeiros-220357243/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi! I’m Andrew and I’m in love with the world of graphic design. Currently in my 5th semester of GD and I’m getting ready for placement and my future. I love Dogs, Democracy, and Design. I’ll be a marketing officer for Hackathon. </t>
+  </si>
+  <si>
+    <t>Graphic Design</t>
+  </si>
+  <si>
+    <t>okahraman2@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Osman Kahraman</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC01890_Osman%20Kahraman.jpg</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/osman-kahraman-2a6513220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi, I am Osman Kahraman. Glad to be a back-end tester in IT team. </t>
+  </si>
+  <si>
+    <t>I am highly skilled and I have versatile professional with 5 years of advanced Python programming experience, 3 years of expertise in machine learning, and 2 years as a TensorFlow developer. Possessing a robust technical background from working as a technician and developing software solutions like the ALi real estate tracker program. Currently pursuing a Bachelor's degree in Computer Programming at Seneca College, with a proven ability to quickly learn and adapt to new technologies. Seeking an opportunity to leverage my programming skills and technical experience in a challenging role that offers growth and innovation.</t>
+  </si>
+  <si>
+    <t>Computer Programming</t>
+  </si>
+  <si>
+    <t>nhrodrigues@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Nicole Herman Rodrigues</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
+  </si>
+  <si>
+    <t>My role at the Seneca Hackathon 2025 focuses on student success, where I aim to support participants by fostering collaboration, ensuring they have the resources they need, and creating an environment where innovation thrives. I’m here to help everyone make the most of this exciting experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management - IT (Semester 2) </t>
+  </si>
+  <si>
+    <t>msingh802@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Manjot Singh</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/manjot-ghatora/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acting as a Partner Experience Officer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Programming </t>
+  </si>
+  <si>
+    <t>jasmeen-kaur39@myseneca.ca</t>
+  </si>
+  <si>
+    <t>- Jasmeen Kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jasmeen Kaur </t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>(Operations officer)will help in the Events by doing some specific duties like who will be the audiance,taking care of projectors , backgroundusic and lightings and so more .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management - Information Technology </t>
+  </si>
+  <si>
+    <t>uppatel8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Upesha Pankajbhai Patel</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20211210_145625_Upesha%20Pankajbhai%20Pa.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/upesha-patel-b76852192?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>As an operations team member in a hackathon i will ensure a smooth event execution by managing logistics, scheduling, and coordination. And will handle venue setup, technical infrastructure, and resource allocation to support participants. Also troubleshooting issues, maintaining communication between teams will be the responsibility as a team member.</t>
+  </si>
+  <si>
+    <t>npkraval@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Naitik Pankaj Kumar Raval</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a dedicated member of the Operations Team at Hackathon 2025, I play a crucial role in ensuring the smooth execution of the event. My responsibilities include coordinating logistics, managing schedules, and overseeing the setup and teardown of event spaces. My goal is to anticipate and resolve any operational challenges that may arise, allowing the hackathon to run efficiently and effectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management Information Technology </t>
+  </si>
+  <si>
+    <t>kelango1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Keerthivaasan Elango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keerthivaasan Elango </t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Keerthivaasan Elango – Operations Coordinator (Hackathon 2025)
+As a Project Management student at Seneca College with a background in Business Analytics and Computer Science, I am eager to contribute my organizational and problem-solving skills to Hackathon 2025. My passion lies in ensuring smooth operations, coordinating logistics, and facilitating communication between teams. With experience in data visualization (Tableau, SQL, Python) and a strong collaborative mindset, I thrive in fast-paced environments. I am committed to creating a seamless and engaging hackathon experience for all participants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT Project Management </t>
+  </si>
+  <si>
+    <t>fmmehta@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Fenil Mehta</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/fenilmehta</t>
+  </si>
+  <si>
+    <t>Consultant, Partner Experience Team</t>
+  </si>
+  <si>
+    <t>Alumni</t>
+  </si>
+  <si>
+    <t>ankit.thapar@senecapolytechnic.ca</t>
+  </si>
+  <si>
+    <t>Ankit Thapar</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4856_Ankit%20Thapar.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ankit-thapar-417873275</t>
+  </si>
+  <si>
+    <t>Backend Tester</t>
+  </si>
+  <si>
+    <t>Computer Programming &amp; Analysis</t>
+  </si>
+  <si>
+    <t>smaharjan34@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Safal Maharjan</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
+  </si>
+  <si>
+    <t>Hi I am Safal Maharjan. I am a marketing officer for this years Hackathon 2025.  I am eager to contribute to enhancing the event’s visibility and participant engagement through innovative marketing approaches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management-Information Technology </t>
+  </si>
+  <si>
+    <t>mhnguyen23@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Mai Huong Nguyen</t>
+  </si>
+  <si>
+    <t>Huong Nguyen</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
+  </si>
+  <si>
+    <t>I have finished my bachelor's degree in Business Studies, and I am studying Supply Chain Management. I also have experience in export documentation. With my background experiences and strong passion for community work, I can contribute meaningfully to the Student Success Team.</t>
+  </si>
+  <si>
+    <t>Supply Chain Management - Global Logistics</t>
+  </si>
+  <si>
+    <t>ncekanayake@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Nisal Chandana Ekanayake</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/nisal-ekanayake</t>
+  </si>
+  <si>
+    <t>Role - Operations Officer
+As an Operations Officer for Hackathon 2025, my role is to ensure the seamless execution of all logistical and operational aspects of the event. This includes coordinating venue setup, managing participant registration, overseeing resource allocation, and troubleshooting real-time issues to ensure a smooth experience for all attendees. I will also facilitate effective communication between different teams, adhere to project timelines, and contribute to post-event analysis for continuous improvement.</t>
+  </si>
+  <si>
+    <t>hsingh958@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Harmanjot Singh</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations officer </t>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>mal-mnayer@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Majd Al Mnayer</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/92330711_Majd%20Al%20Mnayer.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/almnayer/</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Honours Bachelor of Technology – Software Development (BSD)</t>
+  </si>
+  <si>
+    <t>attajudeen@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Abdulgafar Temitope Tajudeen</t>
+  </si>
+  <si>
+    <t>Abdulgafar Tajudeen</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/MPP_Abdulgafar%20Temitope.png</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/clevertag/</t>
+  </si>
+  <si>
+    <t>I will focus more on working on the Frontend part of the Hackathon website and help with the Backend.</t>
+  </si>
+  <si>
+    <t>kvaswani1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Khushi Ajit Vaswani</t>
+  </si>
+  <si>
+    <t>Khushi Vaswani</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
+  </si>
+  <si>
+    <t>Operations Officer</t>
+  </si>
+  <si>
+    <t>Honours Bachelor of Commerce - Business Technology Management</t>
+  </si>
+  <si>
+    <t>msiddiqui48@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Mustafa Siddiqui</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_2429_Mustafa%20Siddiqui.jpeg</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/mu5h1e</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>jasiedu1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Justice Asiedu</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a member of the marketing and communication team for the Hackathon 2025. My role in this team is to create reels on all available social media platforms to portray the whole concept of Hackathon 2025, its benefits, values and objectives. </t>
+  </si>
+  <si>
+    <t>Diploma IT Project Management</t>
+  </si>
+  <si>
+    <t>nsapkota5@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Nischal Sapkota</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1650200403948%20(1)_Nischal%20Sapkota.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nischalsapkota977/</t>
+  </si>
+  <si>
+    <t>Member of Operations team, Working hard to make it successfull and enjoy the hackathon to the fullest.</t>
+  </si>
+  <si>
+    <t>Project management IT</t>
+  </si>
+  <si>
+    <t>dto8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Dinh Quoc To</t>
+  </si>
+  <si>
+    <t>DINH QUOC TO</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/resume%20photo_Dinh%20Quoc%20To.jpg</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/dinh-quoc-to-b17b09191</t>
+  </si>
+  <si>
+    <t>I am a Graphic Designer with a well versed knowledge of helping the Hackathon crew with the Social media content (Facebook, Instagram, Twitter, even LinkedIn)</t>
+  </si>
+  <si>
+    <t>I am currently a Graphic Designer Student</t>
+  </si>
+  <si>
+    <t>cykim4@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Chan Young Kim</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Chan%20Young%20Kim-Digital%20Photo_Chan%20Young%20Kim.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/chanyoung-kim-6488a9269/</t>
+  </si>
+  <si>
+    <t>Marketing Team (Video Editing)</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>athomas141@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Ashmy Thomas</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
+  </si>
+  <si>
+    <t>I am part of the Operations Team for Hackathon 2025, primarily responsible for collecting updates from all departments and managing the participant registration process. My role ensures effective coordination across teams and a smooth registration experience for all participants.</t>
+  </si>
+  <si>
+    <t>IT Project Management</t>
+  </si>
+  <si>
+    <t>jhmehta1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Jenil Hirenkumar Mehta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenil Hirenkumar Mehta </t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>I am enthusiastic participant in Hackathon 2025, taking part as part of a student success initiative. Passionate about innovation and problem-solving, collaborates with a diverse team to develop creative solutions while gaining hands-on experience in coding, design, and teamwork. This opportunity allows to enhance technical and soft skills, preparing for future co-op and career opportunities.</t>
+  </si>
+  <si>
+    <t>Project management in IT</t>
+  </si>
+  <si>
+    <t>sthapa57@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Susma Thapa</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
+  </si>
+  <si>
+    <t>Hello everyone, 
+I am really excited to work as a team member of Student Success Team and contribute in Hackathon 2025. I hope to make more connections and make amazing memories.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Early Childhood Education </t>
+  </si>
+  <si>
+    <t>rbanjade@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Ramesh Banjade</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4534_Ramesh%20Banjade.jpeg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ramesh-banjade-3b80261b3?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Hackathon 2025, I am responsible for ensuring the smooth execution of event logistics, resource management, and operational coordination. My role involves planning schedules, managing communication between teams, overseeing venue setup, and ensuring that all technical and administrative aspects run efficiently. With a background in Project Management – Information Technology, I apply my expertise in workflow optimization, risk management, and team coordination to deliver a seamless hackathon experience for participants, mentors, and organizers</t>
+  </si>
+  <si>
+    <t>bcao10@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Boyu Cao</t>
+  </si>
+  <si>
+    <t>Cao Boyu</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/xeoncao/</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>rhmohamed1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>aa8@myseneca.ca</t>
+  </si>
+  <si>
+    <t>vsavchyn@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgon@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sgupta1797@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>sshrestha140@myseneca.ca</t>
+  </si>
+  <si>
+    <t>uderyigit@myseneca.ca</t>
+  </si>
+  <si>
+    <t>tjojaokomo@myseneca.ca</t>
+  </si>
+  <si>
+    <t>umprajapati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Ruhail Hamza Mohamed</t>
+  </si>
+  <si>
+    <t>Arafat Ahmed Ansari</t>
+  </si>
+  <si>
+    <t>Cleo Buenaventura</t>
+  </si>
+  <si>
+    <t>Vladyslav Savchyn</t>
+  </si>
+  <si>
+    <t>Subhankar Gon</t>
+  </si>
+  <si>
+    <t>Sarthak Gupta</t>
+  </si>
+  <si>
+    <t>Suhana Shrestha</t>
+  </si>
+  <si>
+    <t>Deniz Eryigit</t>
+  </si>
+  <si>
+    <t>Tomisin Jephthah Ojaokomo</t>
+  </si>
+  <si>
+    <t>Ansh Arora</t>
+  </si>
+  <si>
+    <t>Utpal Manishchandra Prajapati</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1omRCdXrgpM0zmuPKzd45X5cy3P99Jv2V</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kahandesai</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/cleo-buenaventura</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vsavchyn/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/subhankargon/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/suhana-shrestha</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deniz-eryigit-2bbb69293/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/siddhipatel10/</t>
+  </si>
+  <si>
+    <t>Marketing Project Manager</t>
+  </si>
+  <si>
+    <t>Software Development Team Lead</t>
+  </si>
+  <si>
+    <t>Backend Tester: Tested backend API with Jest and Supertest. Sometimes tested front-end.</t>
+  </si>
+  <si>
+    <t>P.E Officer</t>
+  </si>
+  <si>
+    <t>Graphics &amp; Motion Designer</t>
+  </si>
+  <si>
+    <t>Manager - Discord and Ticketing Systems</t>
+  </si>
+  <si>
+    <t>Front-End Developer</t>
+  </si>
+  <si>
+    <t>student success officer</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>As a Student Success Officer for Hackathon 2025, my role focuses on ensuring a seamless and engaging experience for participants. I am responsible for communicating with students regarding their meal preferences, addressing any inquiries they may have, and facilitating smooth onboarding. Additionally, I provide guidance, assist with logistical concerns, and ensure that all necessary processes are completed efficiently. By maintaining active communication, I help foster a supportive and well-organized hackathon environment, ensuring that participants feel welcomed and set up for success.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Howdy! Myself Jay! I am a part of the Partner Experience Team!
 Program : CPA 
-Intern @KPMG</t>
-  </si>
-  <si>
-    <t>Computer Proramming And Analysis</t>
-  </si>
-  <si>
-    <t>amedeiros9@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Andrew Medeiros</t>
-  </si>
-  <si>
-    <t>Andrew M</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20240304_141004_Andrew%20Medeiros.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/andrew-medeiros-220357243/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi! I’m Andrew and I’m in love with the world of graphic design. Currently in my 5th semester of GD and I’m getting ready for placement and my future. I love Dogs, Democracy, and Design. I’ll be a marketing officer for Hackathon. </t>
-  </si>
-  <si>
-    <t>Graphic Design</t>
-  </si>
-  <si>
-    <t>okahraman2@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Osman Kahraman</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/DSC01890_Osman%20Kahraman.jpg</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/osman-kahraman-2a6513220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hi, I am Osman Kahraman. Glad to be a back-end tester in IT team. </t>
-  </si>
-  <si>
-    <t>I am highly skilled and I have versatile professional with 5 years of advanced Python programming experience, 3 years of expertise in machine learning, and 2 years as a TensorFlow developer. Possessing a robust technical background from working as a technician and developing software solutions like the ALi real estate tracker program. Currently pursuing a Bachelor's degree in Computer Programming at Seneca College, with a proven ability to quickly learn and adapt to new technologies. Seeking an opportunity to leverage my programming skills and technical experience in a challenging role that offers growth and innovation.</t>
-  </si>
-  <si>
-    <t>Computer Programming</t>
-  </si>
-  <si>
-    <t>nhrodrigues@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Nicole Herman Rodrigues</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20250127_222531_Nicole%20Herman%20Rodrig.png</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nicole-rodrigues41/</t>
-  </si>
-  <si>
-    <t>My role at the Seneca Hackathon 2025 focuses on student success, where I aim to support participants by fostering collaboration, ensuring they have the resources they need, and creating an environment where innovation thrives. I’m here to help everyone make the most of this exciting experience!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management - IT (Semester 2) </t>
-  </si>
-  <si>
-    <t>msingh802@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Manjot Singh</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3537_Manjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/manjot-ghatora/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acting as a Partner Experience Officer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Programming </t>
-  </si>
-  <si>
-    <t>jasmeen-kaur39@myseneca.ca</t>
-  </si>
-  <si>
-    <t>- Jasmeen Kaur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jasmeen Kaur </t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG-20250127-WA0057_-%20Jasmeen%20Kaur.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jasmeen-kaur-401a96338?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>(Operations officer)will help in the Events by doing some specific duties like who will be the audiance,taking care of projectors , backgroundusic and lightings and so more .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management - Information Technology </t>
-  </si>
-  <si>
-    <t>uppatel8@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Upesha Pankajbhai Patel</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_20211210_145625_Upesha%20Pankajbhai%20Pa.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/upesha-patel-b76852192?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>As an operations team member in a hackathon i will ensure a smooth event execution by managing logistics, scheduling, and coordination. And will handle venue setup, technical infrastructure, and resource allocation to support participants. Also troubleshooting issues, maintaining communication between teams will be the responsibility as a team member.</t>
-  </si>
-  <si>
-    <t>npkraval@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Naitik Pankaj Kumar Raval</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202024-04-26%20at%209.57.04%20AM_Naitik%20Pankaj%20Kumar.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/naitik-raval-199128155/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a dedicated member of the Operations Team at Hackathon 2025, I play a crucial role in ensuring the smooth execution of the event. My responsibilities include coordinating logistics, managing schedules, and overseeing the setup and teardown of event spaces. My goal is to anticipate and resolve any operational challenges that may arise, allowing the hackathon to run efficiently and effectively. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management Information Technology </t>
-  </si>
-  <si>
-    <t>kelango1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Keerthivaasan Elango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keerthivaasan Elango </t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_7466_Keerthivaasan%20Elango.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/keerthivaasan01?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>Keerthivaasan Elango – Operations Coordinator (Hackathon 2025)
-As a Project Management student at Seneca College with a background in Business Analytics and Computer Science, I am eager to contribute my organizational and problem-solving skills to Hackathon 2025. My passion lies in ensuring smooth operations, coordinating logistics, and facilitating communication between teams. With experience in data visualization (Tableau, SQL, Python) and a strong collaborative mindset, I thrive in fast-paced environments. I am committed to creating a seamless and engaging hackathon experience for all participants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT Project Management </t>
-  </si>
-  <si>
-    <t>fmmehta@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Fenil Mehta</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/FB_IMG_1568043945443_Fenil%20Mehta.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/fenilmehta</t>
-  </si>
-  <si>
-    <t>Consultant, Partner Experience Team</t>
-  </si>
-  <si>
-    <t>Alumni</t>
-  </si>
-  <si>
-    <t>ankit.thapar@senecapolytechnic.ca</t>
-  </si>
-  <si>
-    <t>Ankit Thapar</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4856_Ankit%20Thapar.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ankit-thapar-417873275</t>
-  </si>
-  <si>
-    <t>Backend Tester</t>
-  </si>
-  <si>
-    <t>Computer Programming &amp; Analysis</t>
-  </si>
-  <si>
-    <t>smaharjan34@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Safal Maharjan</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Scanned%20Documents%20(4)_page-0001_Safal%20Maharjan.jpg</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/safal-maharjan-704588249</t>
-  </si>
-  <si>
-    <t>Hi I am Safal Maharjan. I am a marketing officer for this years Hackathon 2025.  I am eager to contribute to enhancing the event’s visibility and participant engagement through innovative marketing approaches.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Management-Information Technology </t>
-  </si>
-  <si>
-    <t>mhnguyen23@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Mai Huong Nguyen</t>
-  </si>
-  <si>
-    <t>Huong Nguyen</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Profile%20image_Mai%20Huong%20Nguyen.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/mai-huong-nguyen-263631201/</t>
-  </si>
-  <si>
-    <t>I have finished my bachelor's degree in Business Studies, and I am studying Supply Chain Management. I also have experience in export documentation. With my background experiences and strong passion for community work, I can contribute meaningfully to the Student Success Team.</t>
-  </si>
-  <si>
-    <t>Supply Chain Management - Global Logistics</t>
-  </si>
-  <si>
-    <t>ncekanayake@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Nisal Chandana Ekanayake</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/profile%20photo_Nisal%20Chandana%20Ekana.jpg</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/nisal-ekanayake</t>
-  </si>
-  <si>
-    <t>Role - Operations Officer
-As an Operations Officer for Hackathon 2025, my role is to ensure the seamless execution of all logistical and operational aspects of the event. This includes coordinating venue setup, managing participant registration, overseeing resource allocation, and troubleshooting real-time issues to ensure a smooth experience for all attendees. I will also facilitate effective communication between different teams, adhere to project timelines, and contribute to post-event analysis for continuous improvement.</t>
-  </si>
-  <si>
-    <t>hsingh958@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Harmanjot Singh</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_3813_Harmanjot%20Singh.jpeg</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/harmanjot-singh-05807820b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operations officer </t>
-  </si>
-  <si>
-    <t>PMC</t>
-  </si>
-  <si>
-    <t>mal-mnayer@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Majd Al Mnayer</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/92330711_Majd%20Al%20Mnayer.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/almnayer/</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>Honours Bachelor of Technology – Software Development (BSD)</t>
-  </si>
-  <si>
-    <t>attajudeen@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Abdulgafar Temitope Tajudeen</t>
-  </si>
-  <si>
-    <t>Abdulgafar Tajudeen</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/MPP_Abdulgafar%20Temitope.png</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/clevertag/</t>
-  </si>
-  <si>
-    <t>I will focus more on working on the Frontend part of the Hackathon website and help with the Backend.</t>
-  </si>
-  <si>
-    <t>kvaswani1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Khushi Ajit Vaswani</t>
-  </si>
-  <si>
-    <t>Khushi Vaswani</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Capture0526_Khushi%20Ajit%20Vaswani.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/khushi-vaswani/</t>
-  </si>
-  <si>
-    <t>Operations Officer</t>
-  </si>
-  <si>
-    <t>Honours Bachelor of Commerce - Business Technology Management</t>
-  </si>
-  <si>
-    <t>msiddiqui48@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Mustafa Siddiqui</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_2429_Mustafa%20Siddiqui.jpeg</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/mu5h1e</t>
-  </si>
-  <si>
-    <t>Hey everyone! Im Mustafa Siddiqui, a cs student with a passion for low-level programming languages. Im working on the development team for the Seneca 2025 hackathon! I work mostly on backend</t>
-  </si>
-  <si>
-    <t>CPP</t>
-  </si>
-  <si>
-    <t>jasiedu1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Justice Asiedu</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/JUSTICE_Justice%20Asiedu.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/justice-asiedu-b42855346/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am a member of the marketing and communication team for the Hackathon 2025. My role in this team is to create reels on all available social media platforms to portray the whole concept of Hackathon 2025, its benefits, values and objectives. </t>
-  </si>
-  <si>
-    <t>Diploma IT Project Management</t>
-  </si>
-  <si>
-    <t>nsapkota5@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Nischal Sapkota</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1650200403948%20(1)_Nischal%20Sapkota.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nischalsapkota977/</t>
-  </si>
-  <si>
-    <t>Member of Operations team, Working hard to make it successfull and enjoy the hackathon to the fullest.</t>
-  </si>
-  <si>
-    <t>Project management IT</t>
-  </si>
-  <si>
-    <t>dto8@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Dinh Quoc To</t>
-  </si>
-  <si>
-    <t>DINH QUOC TO</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/resume%20photo_Dinh%20Quoc%20To.jpg</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/dinh-quoc-to-b17b09191</t>
-  </si>
-  <si>
-    <t>I am a Graphic Designer with a well versed knowledge of helping the Hackathon crew with the Social media content (Facebook, Instagram, Twitter, even LinkedIn)</t>
-  </si>
-  <si>
-    <t>I am currently a Graphic Designer Student</t>
-  </si>
-  <si>
-    <t>cykim4@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Chan Young Kim</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/Chan%20Young%20Kim-Digital%20Photo_Chan%20Young%20Kim.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/chanyoung-kim-6488a9269/</t>
-  </si>
-  <si>
-    <t>Marketing Team (Video Editing)</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>athomas141@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Ashmy Thomas</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/1_Ashmy%20Thomas.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ashmy-thomas/</t>
-  </si>
-  <si>
-    <t>I am part of the Operations Team for Hackathon 2025, primarily responsible for collecting updates from all departments and managing the participant registration process. My role ensures effective coordination across teams and a smooth registration experience for all participants.</t>
-  </si>
-  <si>
-    <t>IT Project Management</t>
-  </si>
-  <si>
-    <t>jhmehta1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Jenil Hirenkumar Mehta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenil Hirenkumar Mehta </t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/PXL_20240826_001624389.MP-POP_OUT_Jenil%20Hirenkumar%20Meh.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/jenil-mehta-aa39491a1?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
-  </si>
-  <si>
-    <t>I am enthusiastic participant in Hackathon 2025, taking part as part of a student success initiative. Passionate about innovation and problem-solving, collaborates with a diverse team to develop creative solutions while gaining hands-on experience in coding, design, and teamwork. This opportunity allows to enhance technical and soft skills, preparing for future co-op and career opportunities.</t>
-  </si>
-  <si>
-    <t>Project management in IT</t>
-  </si>
-  <si>
-    <t>sthapa57@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Susma Thapa</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_1741_Susma%20Thapa.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/susma-thapa-1765a8312</t>
-  </si>
-  <si>
-    <t>Hello everyone, 
-I am really excited to work as a team member of Student Success Team and contribute in Hackathon 2025. I hope to make more connections and make amazing memories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early Childhood Education </t>
-  </si>
-  <si>
-    <t>rbanjade@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Ramesh Banjade</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/IMG_4534_Ramesh%20Banjade.jpeg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ramesh-banjade-3b80261b3?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
-  </si>
-  <si>
-    <t>Hackathon 2025, I am responsible for ensuring the smooth execution of event logistics, resource management, and operational coordination. My role involves planning schedules, managing communication between teams, overseeing venue setup, and ensuring that all technical and administrative aspects run efficiently. With a background in Project Management – Information Technology, I apply my expertise in workflow optimization, risk management, and team coordination to deliver a seamless hackathon experience for participants, mentors, and organizers</t>
-  </si>
-  <si>
-    <t>bcao10@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Boyu Cao</t>
-  </si>
-  <si>
-    <t>Cao Boyu</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/000125130002_Boyu%20Cao.jpg</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/xeoncao/</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午08:57:11</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午09:08:54</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午09:16:25</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午09:28:33</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午10:55:05</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午11:14:11</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午11:30:12</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午11:34:41</t>
-  </si>
-  <si>
-    <t>2025-3-3 下午11:59:14</t>
-  </si>
-  <si>
-    <t>2025-3-4 下午03:41:52</t>
-  </si>
-  <si>
-    <t>2025-3-4 下午06:46:26</t>
-  </si>
-  <si>
-    <t>2025-3-5 下午09:19:39</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2025-3-3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>07:11:12</t>
-    </r>
+Intern @KPM G</t>
+  </si>
+  <si>
+    <t>Hey everyone! Im Mustafa Siddiqui, a cs student with a passion for low-level programming languages. Im working on the develoPM ent team for the Seneca 2025 hackathon! I work mostly on backend</t>
+  </si>
+  <si>
+    <t>Honours Bachelor of Technology – Software DeveloPM ent (BSD)</t>
+  </si>
+  <si>
+    <t>PM C</t>
+  </si>
+  <si>
+    <t>I am with the Student Success Department at Seneca College, supporting the Hackathon 2025 event. My role involves guiding participants, facilitating collaboration, and ensuring a smooth and engaging experience throughout the event. With a background in business develoPM ent and strong communication skills, I aim to foster innovation and teamwork among students.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM C </t>
+  </si>
+  <si>
+    <t>PM C IT</t>
+  </si>
+  <si>
+    <t>PM C250</t>
+  </si>
+  <si>
+    <t>Project Management – Information Technology (PM C)</t>
+  </si>
+  <si>
+    <t>Currently pursuing Project Management - IT at Seneca College, I have a strong foundation in computing and database application develoPM ent and am eager to gain experience in operational management. As the Operations Officer for Hackathon 2025, I manage event logistics, coordinate resources, ensure schedule compliance, and support the seamless execution of all operational activities. I focus on fostering collaboration, efficiency, and innovation to contribute to the hackathon's success.</t>
+  </si>
+  <si>
+    <t>Project Management in Information Technology (PM C)</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202025-01-19%20at%203.10.53%20PM _W%20Dinithi%20Indrachaya.jpeg</t>
+  </si>
+  <si>
+    <t>Project Management in IT (PM C)</t>
+  </si>
+  <si>
+    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM _Justin%20Chu.jpeg</t>
+  </si>
+  <si>
+    <t>cjbuenaventura@myseneca.ca</t>
+  </si>
+  <si>
+    <t>djsaldanha@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ahuesca-enciso@myseneca.ca</t>
+  </si>
+  <si>
+    <t>wpwirindra@myseneca.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Success Officer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahan Desai </t>
+  </si>
+  <si>
+    <t>Bachelor's of Computer science (Honours)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
+  </si>
+  <si>
+    <t>Senior Consultant</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>Alumni, CPA</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>Web Development - Conestoga College</t>
+  </si>
+  <si>
+    <t>Role: Student Success Officer.  As a Student Success Officer for Hackathon 2025, my role focuses on ensuring a seamless and engaging experience for participants. I am responsible for communicating with students regarding their meal preferences, addressing any inquiries they may have, and facilitating smooth onboarding. Additionally, I provide guidance, assist with logistical concerns, and ensure that all necessary processes are completed efficiently. By maintaining active communication, I help foster a supportive and well-organized hackathon environment, ensuring that participants feel welcomed and set up for success.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
+  </si>
+  <si>
+    <t>Chief of Staff - Support and guide a dedicated team to successfully execute Hackathon 2025 at Seneca Polytechnic by fostering collaboration, ensuring efficient resource use, and helping achieve key milestones.</t>
+  </si>
+  <si>
+    <t>Computer Systems Technology</t>
+  </si>
+  <si>
+    <t>Rahul Mamania</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
+  </si>
+  <si>
+    <t>IT Director</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer Science (Honours)</t>
+  </si>
+  <si>
+    <t>project management IT (PMCC)</t>
+  </si>
+  <si>
+    <t>Krishita Vakil</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
+  </si>
+  <si>
+    <t>Partner Experience - Manager of School Relations</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14kBdmcWhUM5qHieKgrQNHfgUGK-CPkb-</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/num-praditsakul-67a629132</t>
+  </si>
+  <si>
+    <t>QA/QC Manager</t>
+  </si>
+  <si>
+    <t>Dwayne Jude Saldanha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18jjizpslJzMaRS7i8g6pqYIeBsczKDI2</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/dwayne-jude-saldanha-39860a1b6</t>
+  </si>
+  <si>
+    <t>I'm a part of the Student Success Team to support hackathon participants, ensuring they have the resources, guidance, and assistance they need. My goal is to create a welcoming and smooth experience so they can focus on innovation, collaboration, and problem-solving.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15r7a1OkDvAtlQGZg3ZjPxNxhdSq_RTZv</t>
+  </si>
+  <si>
+    <t>Project Management- Information Technology</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LL7s2YlXMluLRwkEhFcP2fpzOMK-8bOK</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shanu-anie-alias/</t>
+  </si>
+  <si>
+    <t>QA Officer</t>
+  </si>
+  <si>
+    <t>York University- Digital marketing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QilLWrXkOajF_UJ1WmSKQtcRdgR8V-cX</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pavan-anandakumar/</t>
+  </si>
+  <si>
+    <t>Content Manager, Marketing</t>
+  </si>
+  <si>
+    <t>Computer Systems Technician</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_koNF9Te7swcY0kHL45RTswkPO-plyni</t>
+  </si>
+  <si>
+    <t>Student Success Director</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1p2nTrnwJN76ULBI6HluWAzUUiwYEyVXY</t>
+  </si>
+  <si>
+    <t>Partner Experience Team - Manager, Corporate Relations</t>
+  </si>
+  <si>
+    <t>Andy Huesca</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
+  </si>
+  <si>
+    <t>https://wwwww.linkedin.com/in/andrea-huesca-b9b7131a0/</t>
+  </si>
+  <si>
+    <t>Tech Support-Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor's of Computer science </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1drYEhY3m5RBop9Eh7bHjgoM7VNK2Gb-w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development Team Lead </t>
+  </si>
+  <si>
+    <t>Winona Wirindra</t>
+  </si>
+  <si>
+    <t>Diploma in Creative Advertising</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1m5EQNw7FrZgKbHNtFzWK19E6vkOv7P2p</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/winona-wirindra-1291ab207?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Content Creation</t>
+  </si>
+  <si>
+    <t>kdesai6826@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>aarora9525@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>Siddhi Patel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rhmohamed1@myseneca.ca</t>
-  </si>
-  <si>
-    <t>aa8@myseneca.ca</t>
-  </si>
-  <si>
-    <t>vsavchyn@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgon@myseneca.ca</t>
-  </si>
-  <si>
-    <t>sgupta1797@conestogac.on.ca</t>
-  </si>
-  <si>
-    <t>sshrestha140@myseneca.ca</t>
-  </si>
-  <si>
-    <t>uderyigit@myseneca.ca</t>
-  </si>
-  <si>
-    <t>tjojaokomo@myseneca.ca</t>
-  </si>
-  <si>
-    <t>umprajapati@myseneca.ca</t>
-  </si>
-  <si>
-    <t>kahandesai2114@gmail.com</t>
-  </si>
-  <si>
-    <t>Aarora9525@conestogac.on.ca</t>
-  </si>
-  <si>
     <t>siddhi4328@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavan Anandakumar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ruhail Hamza Mohamed</t>
-  </si>
-  <si>
-    <t>Arafat Ahmed Ansari</t>
-  </si>
-  <si>
-    <t>Kahan Desai</t>
-  </si>
-  <si>
-    <t>Cleo Buenaventura</t>
-  </si>
-  <si>
-    <t>Vladyslav Savchyn</t>
-  </si>
-  <si>
-    <t>Subhankar Gon</t>
-  </si>
-  <si>
-    <t>Sarthak Gupta</t>
-  </si>
-  <si>
-    <t>Suhana Shrestha</t>
-  </si>
-  <si>
-    <t>Deniz Eryigit</t>
-  </si>
-  <si>
-    <t>Tomisin Jephthah Ojaokomo</t>
-  </si>
-  <si>
-    <t>Ansh Arora</t>
-  </si>
-  <si>
-    <t>Utpal Manishchandra Prajapati</t>
-  </si>
-  <si>
-    <t>Siddhi Patel</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Ce4wLhfIaRW6i1GVu9VeLd6hL2_IwWjY</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1wPf8samP1m12dMqwjjMeQIyA01VH5PQW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1omRCdXrgpM0zmuPKzd45X5cy3P99Jv2V</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1kRjZhsDtRHjqIoDSNc_EDsbudLdzg50s</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1gb3qYWS_HHsMNoCHObr20bdzbLHM2Pqi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1AzSS-72xho7BokZE3KeDeNmaFRUL172N</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1y7P6kSnPO3nLp0wlXo9As6w1GtZixkYs</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1wotF5RzvgbShFtBqVGbj-VM-2cJfnP9M</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=15RFDt_tR3_nJUFKRWWmugQwZG6WYzeHt</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1qrFmtB8xQrXxBUhdOCvtajxdvTY8Gmxi</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1rWpo-efL-DfqKQjOFeI5JUrI2nRyu-a_</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=18i1lXKp99NvgcoSg_QF1r77sLpIt2CsT</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ruhail-hamza-mohamed-6a94b8203/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/arfat-ahmed-ansari/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/kahandesai</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/cleo-buenaventura</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/vsavchyn/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/subhankargon/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/s4rthak-gupta/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/suhana-shrestha</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/deniz-eryigit-2bbb69293/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/tomisin-ojaokomo</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ansh-arora-29675a221/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/utpal-prajapati-191a391a8</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/siddhipatel10/</t>
-  </si>
-  <si>
-    <t>Marketing Project Manager</t>
-  </si>
-  <si>
-    <t>Software Development Team Lead</t>
-  </si>
-  <si>
-    <t>Backend Tester: Tested backend API with Jest and Supertest. Sometimes tested front-end.</t>
-  </si>
-  <si>
-    <t>P.E Officer</t>
-  </si>
-  <si>
-    <t>Graphics &amp; Motion Designer</t>
-  </si>
-  <si>
-    <t>Manager - Discord and Ticketing Systems</t>
-  </si>
-  <si>
-    <t>Front-End Developer</t>
-  </si>
-  <si>
-    <t>student success officer</t>
-  </si>
-  <si>
-    <t>Data Analytics</t>
-  </si>
-  <si>
-    <t>Student Success Officer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a Student Success Officer for Hackathon 2025, my role focuses on ensuring a seamless and engaging experience for participants. I am responsible for communicating with students regarding their meal preferences, addressing any inquiries they may have, and facilitating smooth onboarding. Additionally, I provide guidance, assist with logistical concerns, and ensure that all necessary processes are completed efficiently. By maintaining active communication, I help foster a supportive and well-organized hackathon environment, ensuring that participants feel welcomed and set up for success.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chief of Staff - Support and guide a dedicated team to successfully execute Hackathon 2025 at Seneca Polytechnic by fostering collaboration, ensuring efficient resource use, and helping achieve key milestones.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fenil Mehta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cjbuenaventura@myseneca.ca</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleo Buenaventura</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1HA9k5zKKLL1Ko6LDw_0sPQyHwfKBwHVC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1VYrkf61sKKEovtaPPXKQJoEft9UKxmM7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1nBgDszp_I0qFXi6Z94V0JSIkWaZ972jv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>pavan108@my.yorku.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1575,15 +1684,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF434343"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1594,7 +1711,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1602,12 +1719,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1617,12 +1870,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{841C3931-2774-45F4-9F02-4E3BA09BCE6E}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1652,7 +1969,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="第 1 张表单回复-style" pivot="0" count="3" xr9:uid="{11550001-D47F-473B-A9B9-D4963A6A964B}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1669,13 +1992,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K79" totalsRowShown="0">
-  <autoFilter ref="A1:K79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K92" totalsRowShown="0">
+  <autoFilter ref="A1:K92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="11">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
@@ -1696,56 +2019,56 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="10">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="9">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Full Name" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Full Name" dataDxfId="8">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rcbccae7987da4248af1de425a392c0cf"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Upload Your Profile Photo" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Upload Your Profile Photo" dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4d1dfc31a8eb49a7a9775fdf5f2ccc0a"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn Profile" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn Profile" dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r5a444e7413e14d358004e34cdcf48851"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Short Bio or Role Description" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Short Bio or Role Description" dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rbdeebd1aae904721a2a072f795b3e93b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Additional Information (Optional)" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Additional Information (Optional)" dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r49b89da1c62d451689c05bfaba114702"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{99A41476-DEBC-465E-A0E4-E43C9123BF41}" name="Which course are you currently enrolled in? (Please write Alumni if you have graduated.)" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{99A41476-DEBC-465E-A0E4-E43C9123BF41}" name="Which course are you currently enrolled in? (Please write Alumni if you have graduated.)" dataDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf67b47d4fcb841bab25839bf4c805dde"/>
@@ -2071,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2126,32 +2449,32 @@
         <v>47</v>
       </c>
       <c r="B2" s="1">
-        <v>45686.658611111103</v>
+        <v>45686.65861111111</v>
       </c>
       <c r="C2" s="1">
-        <v>45686.661909722199</v>
+        <v>45686.661909722221</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2159,32 +2482,32 @@
         <v>36</v>
       </c>
       <c r="B3" s="1">
-        <v>45680.595185185201</v>
+        <v>45680.595185185186</v>
       </c>
       <c r="C3" s="1">
-        <v>45680.598993055602</v>
+        <v>45680.598993055559</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2192,34 +2515,34 @@
         <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>45683.842013888898</v>
+        <v>45683.842013888891</v>
       </c>
       <c r="C4" s="1">
-        <v>45683.844085648103</v>
+        <v>45683.844085648147</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2227,32 +2550,32 @@
         <v>54</v>
       </c>
       <c r="B5" s="1">
-        <v>45686.810277777797</v>
+        <v>45686.810277777775</v>
       </c>
       <c r="C5" s="1">
-        <v>45686.812164351897</v>
+        <v>45686.812164351853</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2260,32 +2583,32 @@
         <v>42</v>
       </c>
       <c r="B6" s="1">
-        <v>45685.7008796296</v>
+        <v>45685.700879629629</v>
       </c>
       <c r="C6" s="1">
-        <v>45685.709444444401</v>
+        <v>45685.709444444445</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2293,32 +2616,32 @@
         <v>48</v>
       </c>
       <c r="B7" s="1">
-        <v>45686.671678240702</v>
+        <v>45686.671678240738</v>
       </c>
       <c r="C7" s="1">
-        <v>45686.6856134259</v>
+        <v>45686.685613425929</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2326,32 +2649,32 @@
         <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>45682.550092592603</v>
+        <v>45682.550092592595</v>
       </c>
       <c r="C8" s="1">
-        <v>45682.553495370397</v>
+        <v>45682.553495370368</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>233</v>
+        <v>447</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2359,32 +2682,32 @@
         <v>56</v>
       </c>
       <c r="B9" s="1">
-        <v>45686.955497685201</v>
+        <v>45686.955497685187</v>
       </c>
       <c r="C9" s="1">
-        <v>45686.958634259303</v>
+        <v>45686.958634259259</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2392,32 +2715,32 @@
         <v>57</v>
       </c>
       <c r="B10" s="1">
-        <v>45686.974652777797</v>
+        <v>45686.974652777775</v>
       </c>
       <c r="C10" s="1">
         <v>45687.001516203702</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2425,32 +2748,32 @@
         <v>63</v>
       </c>
       <c r="B11" s="1">
-        <v>45691.845543981501</v>
+        <v>45691.845543981479</v>
       </c>
       <c r="C11" s="1">
-        <v>45691.847048611096</v>
+        <v>45691.847048611111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="360" x14ac:dyDescent="0.25">
@@ -2464,28 +2787,28 @@
         <v>45675.022870370398</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" t="s">
         <v>148</v>
-      </c>
-      <c r="K12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2493,32 +2816,32 @@
         <v>39</v>
       </c>
       <c r="B13" s="1">
-        <v>45682.581944444399</v>
+        <v>45682.581944444442</v>
       </c>
       <c r="C13" s="1">
-        <v>45682.619467592602</v>
+        <v>45682.619467592594</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2526,34 +2849,34 @@
         <v>60</v>
       </c>
       <c r="B14" s="1">
-        <v>45688.8500347222</v>
+        <v>45688.850034722222</v>
       </c>
       <c r="C14" s="1">
-        <v>45688.854733796303</v>
+        <v>45688.854733796295</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2561,32 +2884,32 @@
         <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>45686.838217592602</v>
+        <v>45686.838217592594</v>
       </c>
       <c r="C15" s="1">
-        <v>45686.839953703697</v>
+        <v>45686.839953703704</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2594,32 +2917,32 @@
         <v>53</v>
       </c>
       <c r="B16" s="1">
-        <v>45686.760543981502</v>
+        <v>45686.76054398148</v>
       </c>
       <c r="C16" s="1">
-        <v>45686.764386574097</v>
+        <v>45686.764386574076</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>327</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2627,32 +2950,32 @@
         <v>59</v>
       </c>
       <c r="B17" s="1">
-        <v>45688.7715046296</v>
+        <v>45688.771504629629</v>
       </c>
       <c r="C17" s="1">
-        <v>45688.7755092593</v>
+        <v>45688.775509259256</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2660,32 +2983,32 @@
         <v>61</v>
       </c>
       <c r="B18" s="1">
-        <v>45689.728865740697</v>
+        <v>45689.728865740741</v>
       </c>
       <c r="C18" s="1">
-        <v>45689.734270833302</v>
+        <v>45689.734270833331</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -2693,32 +3016,32 @@
         <v>46</v>
       </c>
       <c r="B19" s="1">
-        <v>45685.979479166701</v>
+        <v>45685.979479166665</v>
       </c>
       <c r="C19" s="1">
         <v>45685.985578703701</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2726,32 +3049,32 @@
         <v>52</v>
       </c>
       <c r="B20" s="1">
-        <v>45686.719074074099</v>
+        <v>45686.719074074077</v>
       </c>
       <c r="C20" s="1">
-        <v>45686.719745370399</v>
+        <v>45686.71974537037</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -2759,32 +3082,32 @@
         <v>64</v>
       </c>
       <c r="B21" s="1">
-        <v>45692.672060185199</v>
+        <v>45692.672060185185</v>
       </c>
       <c r="C21" s="1">
-        <v>45692.681608796302</v>
+        <v>45692.681608796294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2792,32 +3115,32 @@
         <v>65</v>
       </c>
       <c r="B22" s="1">
-        <v>45708.988541666702</v>
+        <v>45708.988541666666</v>
       </c>
       <c r="C22" s="1">
         <v>45709.002928240698</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>321</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -2825,34 +3148,34 @@
         <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>45675.760474536997</v>
+        <v>45675.760474537034</v>
       </c>
       <c r="C23" s="1">
-        <v>45675.769027777802</v>
+        <v>45675.76902777778</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="I23" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2860,32 +3183,32 @@
         <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>45675.6925694444</v>
+        <v>45675.692569444444</v>
       </c>
       <c r="C24" s="1">
-        <v>45675.693761574097</v>
+        <v>45675.693761574075</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2899,26 +3222,26 @@
         <v>45675.401875000003</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>155</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2926,32 +3249,32 @@
         <v>37</v>
       </c>
       <c r="B26" s="1">
-        <v>45681.6726851852</v>
+        <v>45681.672685185185</v>
       </c>
       <c r="C26" s="1">
-        <v>45681.803356481498</v>
+        <v>45681.803356481483</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2959,32 +3282,32 @@
         <v>43</v>
       </c>
       <c r="B27" s="1">
-        <v>45685.849027777796</v>
+        <v>45685.849027777775</v>
       </c>
       <c r="C27" s="1">
-        <v>45685.871701388904</v>
+        <v>45685.871701388889</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2992,32 +3315,32 @@
         <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>45677.596921296303</v>
+        <v>45677.596921296295</v>
       </c>
       <c r="C28" s="1">
-        <v>45677.600173611099</v>
+        <v>45677.600173611114</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3025,32 +3348,32 @@
         <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>45685.916608796302</v>
+        <v>45685.916608796295</v>
       </c>
       <c r="C29" s="1">
         <v>45685.920983796299</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -3061,29 +3384,29 @@
         <v>45686.685358796298</v>
       </c>
       <c r="C30" s="1">
-        <v>45686.704814814802</v>
+        <v>45686.704814814817</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -3091,32 +3414,32 @@
         <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>45679.818356481497</v>
+        <v>45679.818356481483</v>
       </c>
       <c r="C31" s="1">
-        <v>45679.8380555556</v>
+        <v>45679.838055555556</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>208</v>
+        <v>456</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3124,32 +3447,32 @@
         <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>45684.932789351798</v>
+        <v>45684.932789351849</v>
       </c>
       <c r="C32" s="1">
-        <v>45684.941180555601</v>
+        <v>45684.941180555557</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3157,32 +3480,32 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>45679.731747685197</v>
+        <v>45679.731747685182</v>
       </c>
       <c r="C33" s="1">
-        <v>45679.736539351899</v>
+        <v>45679.736539351848</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
@@ -3190,32 +3513,32 @@
         <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>45675.735810185201</v>
+        <v>45675.735810185186</v>
       </c>
       <c r="C34" s="1">
-        <v>45675.751585648097</v>
+        <v>45675.751585648148</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="I34" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3223,32 +3546,32 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>45679.824861111098</v>
+        <v>45679.824861111112</v>
       </c>
       <c r="C35" s="1">
-        <v>45679.839710648099</v>
+        <v>45679.83971064815</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3256,32 +3579,32 @@
         <v>62</v>
       </c>
       <c r="B36" s="1">
-        <v>45689.756655092599</v>
+        <v>45689.756655092591</v>
       </c>
       <c r="C36" s="1">
-        <v>45689.762974537</v>
+        <v>45689.762974537036</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -3289,32 +3612,32 @@
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <v>45676.6268865741</v>
+        <v>45676.626886574071</v>
       </c>
       <c r="C37" s="1">
         <v>45676.635625000003</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3322,32 +3645,32 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>45685.918356481503</v>
+        <v>45685.918356481481</v>
       </c>
       <c r="C38" s="1">
-        <v>45685.925451388903</v>
+        <v>45685.925451388888</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -3355,32 +3678,32 @@
         <v>58</v>
       </c>
       <c r="B39" s="1">
-        <v>45687.523564814801</v>
+        <v>45687.523564814815</v>
       </c>
       <c r="C39" s="1">
-        <v>45687.533773148098</v>
+        <v>45687.533773148149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
@@ -3388,34 +3711,34 @@
         <v>32</v>
       </c>
       <c r="B40" s="1">
-        <v>45677.992488425902</v>
+        <v>45677.992488425924</v>
       </c>
       <c r="C40" s="1">
         <v>45678.003009259301</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K40" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -3423,32 +3746,32 @@
         <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>45686.681145833303</v>
+        <v>45686.681145833332</v>
       </c>
       <c r="C41" s="1">
-        <v>45686.686006944401</v>
+        <v>45686.686006944445</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3456,32 +3779,32 @@
         <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>45686.690023148098</v>
+        <v>45686.690023148149</v>
       </c>
       <c r="C42" s="1">
-        <v>45686.697708333297</v>
+        <v>45686.697708333333</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3835,7 +4158,7 @@
         <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>76</v>
@@ -3850,10 +4173,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="1">
-        <v>45664.800914351901</v>
+        <v>45664.80091435185</v>
       </c>
       <c r="C55" s="1">
-        <v>45664.804675925901</v>
+        <v>45664.804675925923</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>78</v>
@@ -3895,7 +4218,7 @@
         <v>84</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>85</v>
@@ -3910,10 +4233,10 @@
         <v>15</v>
       </c>
       <c r="B57" s="1">
-        <v>45665.530451388899</v>
+        <v>45665.530451388891</v>
       </c>
       <c r="C57" s="1">
-        <v>45665.533773148098</v>
+        <v>45665.533773148149</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>87</v>
@@ -3940,10 +4263,10 @@
         <v>16</v>
       </c>
       <c r="B58" s="1">
-        <v>45665.655520833301</v>
+        <v>45665.65552083333</v>
       </c>
       <c r="C58" s="1">
-        <v>45665.657627314802</v>
+        <v>45665.657627314817</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>92</v>
@@ -3970,10 +4293,10 @@
         <v>17</v>
       </c>
       <c r="B59" s="1">
-        <v>45665.7163657407</v>
+        <v>45665.716365740744</v>
       </c>
       <c r="C59" s="1">
-        <v>45665.724722222199</v>
+        <v>45665.724722222221</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>98</v>
@@ -4002,10 +4325,10 @@
         <v>18</v>
       </c>
       <c r="B60" s="1">
-        <v>45665.873993055597</v>
+        <v>45665.873993055553</v>
       </c>
       <c r="C60" s="1">
-        <v>45665.881087962996</v>
+        <v>45665.88108796296</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>105</v>
@@ -4032,10 +4355,10 @@
         <v>19</v>
       </c>
       <c r="B61" s="1">
-        <v>45665.8913425926</v>
+        <v>45665.891342592593</v>
       </c>
       <c r="C61" s="1">
-        <v>45665.903078703697</v>
+        <v>45665.903078703705</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>111</v>
@@ -4062,10 +4385,10 @@
         <v>20</v>
       </c>
       <c r="B62" s="1">
-        <v>45666.898900462998</v>
+        <v>45666.898900462962</v>
       </c>
       <c r="C62" s="1">
-        <v>45666.902361111097</v>
+        <v>45666.902361111112</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>117</v>
@@ -4147,15 +4470,15 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23</v>
       </c>
       <c r="B65" s="1">
-        <v>45668.652233796303</v>
+        <v>45668.652233796296</v>
       </c>
       <c r="C65" s="1">
-        <v>45668.655092592599</v>
+        <v>45668.655092592591</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>132</v>
@@ -4167,359 +4490,697 @@
         <v>133</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
       <c r="B66" s="1">
-        <v>45670.651388888902</v>
+        <v>45670.651388888888</v>
       </c>
       <c r="C66" s="1">
-        <v>45670.655057870397</v>
+        <v>45670.655057870368</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="7">
+        <v>45719.799443171301</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="8">
+        <v>45719.873041539351</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="7">
+        <v>45719.88118034722</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="8">
+        <v>45719.885935300925</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="7">
+        <v>45719.886403645833</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="8">
+        <v>45719.894827222219</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="D67" t="s">
+      <c r="H72" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="7">
+        <v>45719.954913437497</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H73" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="F67" t="s">
-        <v>427</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="I73" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="8">
+        <v>45719.968188067127</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="G74" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="H74" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="7">
+        <v>45719.979304247681</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="8">
+        <v>45719.982414363425</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="7">
+        <v>45719.999470196759</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="I77" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>402</v>
-      </c>
-      <c r="D68" t="s">
-        <v>416</v>
-      </c>
-      <c r="E68" t="s">
-        <v>428</v>
-      </c>
-      <c r="F68" t="s">
-        <v>428</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="8">
+        <v>45720.488428611112</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="H78" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="7">
+        <v>45720.654069224533</v>
+      </c>
+      <c r="D79" t="s">
+        <v>522</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="I79" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>403</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="C80" s="8">
+        <v>45720.78224670139</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="G80" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="H80" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="C81" s="7">
+        <v>45720.847401956024</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J81" s="11"/>
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="C82" s="8">
+        <v>45721.564685972218</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="G82" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="H82" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="J82" s="11"/>
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="C83" s="7">
+        <v>45721.888644479171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>524</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="C84" s="8">
+        <v>45722.857292546294</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="C85" s="7">
+        <v>45722.875584062502</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="C86" s="8">
+        <v>45723.020868217594</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J86" s="11"/>
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="C87" s="7">
+        <v>45725.873511550926</v>
+      </c>
+      <c r="D87" t="s">
+        <v>526</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="C88" s="8">
+        <v>45726.530941840276</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="H88" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="J88" s="11"/>
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="C89" s="7">
+        <v>45726.650853321757</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="J89" s="11"/>
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="C90" s="8">
+        <v>45726.662231979164</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="H90" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="J90" s="11"/>
+      <c r="K90" s="10"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="C91" s="7">
+        <v>45726.683793680553</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="H91" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="E69" t="s">
-        <v>429</v>
-      </c>
-      <c r="F69" t="s">
-        <v>429</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>404</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E70" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" t="s">
-        <v>430</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I70" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>405</v>
-      </c>
-      <c r="D71" t="s">
-        <v>417</v>
-      </c>
-      <c r="E71" t="s">
-        <v>431</v>
-      </c>
-      <c r="F71" t="s">
-        <v>431</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>406</v>
-      </c>
-      <c r="D72" t="s">
-        <v>418</v>
-      </c>
-      <c r="E72" t="s">
-        <v>432</v>
-      </c>
-      <c r="F72" t="s">
-        <v>432</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>407</v>
-      </c>
-      <c r="D73" t="s">
-        <v>419</v>
-      </c>
-      <c r="E73" t="s">
-        <v>433</v>
-      </c>
-      <c r="F73" t="s">
-        <v>433</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>408</v>
-      </c>
-      <c r="D74" t="s">
-        <v>420</v>
-      </c>
-      <c r="E74" t="s">
-        <v>434</v>
-      </c>
-      <c r="F74" t="s">
-        <v>477</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>409</v>
-      </c>
-      <c r="D75" t="s">
-        <v>421</v>
-      </c>
-      <c r="E75" t="s">
-        <v>435</v>
-      </c>
-      <c r="F75" t="s">
-        <v>435</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>410</v>
-      </c>
-      <c r="D76" t="s">
-        <v>422</v>
-      </c>
-      <c r="E76" t="s">
-        <v>436</v>
-      </c>
-      <c r="F76" t="s">
-        <v>436</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I76" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>411</v>
-      </c>
-      <c r="D77" t="s">
-        <v>425</v>
-      </c>
-      <c r="E77" t="s">
-        <v>437</v>
-      </c>
-      <c r="F77" t="s">
-        <v>437</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>412</v>
-      </c>
-      <c r="D78" t="s">
-        <v>423</v>
-      </c>
-      <c r="E78" t="s">
-        <v>438</v>
-      </c>
-      <c r="F78" t="s">
-        <v>438</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>413</v>
-      </c>
-      <c r="D79" t="s">
-        <v>426</v>
-      </c>
-      <c r="E79" t="s">
-        <v>439</v>
-      </c>
-      <c r="F79" t="s">
-        <v>439</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H79" s="3" t="s">
+      <c r="I91" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="J91" s="11"/>
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="C92" s="9">
+        <v>45726.818197905093</v>
+      </c>
+      <c r="D92" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="I79" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="J79" s="2"/>
+      <c r="E92" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="G92" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="J92" s="11"/>
+      <c r="K92" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4546,7 +5207,7 @@
     <hyperlink ref="H44" r:id="rId20" xr:uid="{56AA4B91-105D-40E9-8905-72059EBE88D4}"/>
     <hyperlink ref="G62" r:id="rId21" xr:uid="{8C97E1C1-8550-458F-9CF5-9AA70212349C}"/>
     <hyperlink ref="G63" r:id="rId22" xr:uid="{FB35C317-2054-4379-918A-6FD9C5511D14}"/>
-    <hyperlink ref="G65" r:id="rId23" xr:uid="{58670DAE-4E4D-4877-84DD-F3850885AF19}"/>
+    <hyperlink ref="G65" r:id="rId23" display="https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202021-03-13%20at%204.04.51%20PM_Justin%20Chu.jpeg" xr:uid="{58670DAE-4E4D-4877-84DD-F3850885AF19}"/>
     <hyperlink ref="G64" r:id="rId24" xr:uid="{DC065989-5A78-4FAE-8D10-199CB1D6BD46}"/>
     <hyperlink ref="G66" r:id="rId25" xr:uid="{5A95DFF7-C69D-4741-AE78-FC72DE2F368A}"/>
     <hyperlink ref="H63" r:id="rId26" xr:uid="{462878B6-F3AF-4906-8121-6561DC51E589}"/>
@@ -4562,7 +5223,7 @@
     <hyperlink ref="G13" r:id="rId36" xr:uid="{4976A7BA-87DC-4F6B-BF58-F9EAC939F50B}"/>
     <hyperlink ref="G38" r:id="rId37" xr:uid="{F52D9D70-A037-4E71-8B44-D6DA54482F7A}"/>
     <hyperlink ref="G27" r:id="rId38" xr:uid="{760E2DF9-3937-4CBB-AABE-BF17AD1D3A8B}"/>
-    <hyperlink ref="G37" r:id="rId39" xr:uid="{043BDF09-B2BD-496A-8C1E-458FF4AEB6AA}"/>
+    <hyperlink ref="G37" r:id="rId39" display="https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/WhatsApp%20Image%202025-01-19%20at%203.10.53%20PM_W%20Dinithi%20Indrachaya.jpeg" xr:uid="{043BDF09-B2BD-496A-8C1E-458FF4AEB6AA}"/>
     <hyperlink ref="G40" r:id="rId40" xr:uid="{967A354E-A109-43A2-B542-C8033AC3DFAF}"/>
     <hyperlink ref="G28" r:id="rId41" xr:uid="{0E1AA698-42D6-4415-A96B-44530623A527}"/>
     <hyperlink ref="G23" r:id="rId42" xr:uid="{4802AFEA-9DF6-4FE6-B894-ECB1270F6D35}"/>
@@ -4576,55 +5237,68 @@
     <hyperlink ref="H23" r:id="rId50" xr:uid="{9E2E8F65-A9B3-49F2-8F64-D29DBE4E02FC}"/>
     <hyperlink ref="H28" r:id="rId51" xr:uid="{6172FC36-6AFE-47AE-954D-8F45FE05E6AA}"/>
     <hyperlink ref="H32" r:id="rId52" xr:uid="{A82EEFC3-966F-41E4-8B80-1D5962557BB7}"/>
-    <hyperlink ref="D79" r:id="rId53" xr:uid="{0CEFF791-E95D-4ABA-A862-DF8D25286141}"/>
-    <hyperlink ref="G67" r:id="rId54" xr:uid="{0A8DB93B-F23F-41D3-B86D-4E7800374184}"/>
-    <hyperlink ref="G68" r:id="rId55" xr:uid="{A4702360-8338-4834-BBB3-4DA3784826ED}"/>
-    <hyperlink ref="G69" r:id="rId56" xr:uid="{4EFD3C91-6A9B-47B1-8FE5-28B1BF9F1758}"/>
-    <hyperlink ref="G70" r:id="rId57" xr:uid="{0ADCBA34-E341-4D56-BA72-1CFCB176C002}"/>
-    <hyperlink ref="G71" r:id="rId58" xr:uid="{99EFED3C-1D54-4D1C-951E-2BB803D11455}"/>
-    <hyperlink ref="G72" r:id="rId59" xr:uid="{E1CF2291-F7F8-43BB-BAE3-6CA8E28E69DC}"/>
-    <hyperlink ref="G73" r:id="rId60" xr:uid="{61C89F6A-E0C7-481B-B046-9070DFEAA7B0}"/>
-    <hyperlink ref="G74" r:id="rId61" xr:uid="{EED23829-C10A-4AC4-A8C4-7E5E0BC04332}"/>
-    <hyperlink ref="G75" r:id="rId62" xr:uid="{9F47E65B-ADD3-4696-9F22-4616E13ACA8C}"/>
-    <hyperlink ref="G76" r:id="rId63" xr:uid="{003A8779-C298-46D9-99C9-B4E1BD48DE13}"/>
-    <hyperlink ref="G77" r:id="rId64" xr:uid="{C1801A5C-C80E-4A15-BA09-6ADCEA403351}"/>
-    <hyperlink ref="G78" r:id="rId65" xr:uid="{781A5559-115C-4236-B90B-6370F8DDE613}"/>
-    <hyperlink ref="G79" r:id="rId66" xr:uid="{1F30A8EE-EABA-4782-B4C9-AF65846F2783}"/>
-    <hyperlink ref="H67" r:id="rId67" xr:uid="{53FA6DF3-8C37-48D4-8816-1E80C8D579E0}"/>
-    <hyperlink ref="H68" r:id="rId68" xr:uid="{9281E405-2B8F-4887-9335-CBDC6DA92955}"/>
-    <hyperlink ref="H69" r:id="rId69" xr:uid="{32E88D78-E9D5-4F1C-9310-49AD01D6A7F4}"/>
-    <hyperlink ref="H70" r:id="rId70" display="http://linkedin.com/in/cleo-buenaventura" xr:uid="{AD76BCF3-33C1-4BF3-A3C2-635342E614A9}"/>
-    <hyperlink ref="H71" r:id="rId71" xr:uid="{CADE8B5C-A2FF-48E1-8E62-A8B2727C383F}"/>
-    <hyperlink ref="H72" r:id="rId72" xr:uid="{99C2B4AC-06EC-445C-AD10-96989F1C25E0}"/>
-    <hyperlink ref="H73" r:id="rId73" xr:uid="{86078F22-8AF1-44CD-BEAC-01233F855721}"/>
-    <hyperlink ref="H74" r:id="rId74" display="http://www.linkedin.com/in/suhana-shrestha" xr:uid="{53C26434-110F-4AF6-8CD6-9A93C8475C92}"/>
-    <hyperlink ref="H75" r:id="rId75" xr:uid="{6F73D0A1-C18C-438B-AC1D-94521C25804F}"/>
-    <hyperlink ref="H76" r:id="rId76" display="http://www.linkedin.com/in/tomisin-ojaokomo" xr:uid="{88EDD760-8E2F-43EC-9B0D-2FAD141AA86E}"/>
-    <hyperlink ref="H77" r:id="rId77" xr:uid="{F51A016D-E482-4ABD-94F9-394B4880D096}"/>
-    <hyperlink ref="H78" r:id="rId78" display="http://www.linkedin.com/in/utpal-prajapati-191a391a8" xr:uid="{B173318C-C519-4672-A834-1FF1FFF1A8E0}"/>
-    <hyperlink ref="H79" r:id="rId79" xr:uid="{6FE58E59-576D-40AD-821D-BAD2429E40BC}"/>
-    <hyperlink ref="D70" r:id="rId80" xr:uid="{807D2B8C-80E4-4EBE-A7F0-AC43AD49708C}"/>
+    <hyperlink ref="G67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G70" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H72" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G73" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H73" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G75" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G76" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H81" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G82" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H82" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G83" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H83" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G84" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H84" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G85" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H85" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G86" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G87" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H87" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G88" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H88" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G89" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G90" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H90" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G91" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H91" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G92" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H92" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
   <tableParts count="1">
-    <tablePart r:id="rId82"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -4837,6 +5511,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4847,23 +5532,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4882,6 +5550,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>

--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A624D081-3D6B-49C0-9BBE-487D8B810EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C3FA0A-40DD-4D20-BCCA-F1C9A569603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22584" yWindow="2532" windowWidth="23724" windowHeight="13368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19020" yWindow="1464" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="580">
   <si>
     <t>Id</t>
   </si>
@@ -413,10 +413,6 @@
   </si>
   <si>
     <t>Abhinaya Narayanan Subramanian</t>
-  </si>
-  <si>
-    <t>https://seneca.sharepoint.com/sites/2025HackathonPlanning/Shared%20Documents/Apps/Microsoft%20Forms/Hackathon%202025%20Organizing%20Team%20Member%20Profile%20Subm/Question/471952021_2580787655451226_294666648770807822_Abigail%20Cabazal.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://www.linkedin.com/in/nsabhinaya</t>
@@ -569,12 +565,6 @@
     <t>I am a friendly, fun-loving, and approachable individual who thrives on building strong connections and creating a positive environment. Known for my excellent communication and interpersonal skills, I enjoy collaborating with others and supporting their growth. My energetic nature, combined with my passion for innovation and teamwork, makes me well-suited to help participants feel motivated and engaged throughout Hackathon 2025.</t>
   </si>
   <si>
-    <t>wdifernando@myseneca.ca</t>
-  </si>
-  <si>
-    <t>W Dinithi Indrachaya Fernando</t>
-  </si>
-  <si>
     <t>Dinithi Fernando</t>
   </si>
   <si>
@@ -993,9 +983,6 @@
     <t xml:space="preserve">Operations officer </t>
   </si>
   <si>
-    <t>PMC</t>
-  </si>
-  <si>
     <t>mal-mnayer@myseneca.ca</t>
   </si>
   <si>
@@ -1009,9 +996,6 @@
   </si>
   <si>
     <t>Consultant</t>
-  </si>
-  <si>
-    <t>Honours Bachelor of Technology – Software Development (BSD)</t>
   </si>
   <si>
     <t>attajudeen@myseneca.ca</t>
@@ -1470,27 +1454,12 @@
     <t xml:space="preserve">Kahan Desai </t>
   </si>
   <si>
-    <t>Bachelor's of Computer science (Honours)</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1PQ7LaNzV-mbmWh0hLPhF2Y2MwVKcpuR9</t>
   </si>
   <si>
     <t>Senior Consultant</t>
   </si>
   <si>
-    <t>BSD</t>
-  </si>
-  <si>
-    <t>Alumni, CPA</t>
-  </si>
-  <si>
-    <t>Business Analytics</t>
-  </si>
-  <si>
-    <t>Web Development - Conestoga College</t>
-  </si>
-  <si>
     <t>Role: Student Success Officer.  As a Student Success Officer for Hackathon 2025, my role focuses on ensuring a seamless and engaging experience for participants. I am responsible for communicating with students regarding their meal preferences, addressing any inquiries they may have, and facilitating smooth onboarding. Additionally, I provide guidance, assist with logistical concerns, and ensure that all necessary processes are completed efficiently. By maintaining active communication, I help foster a supportive and well-organized hackathon environment, ensuring that participants feel welcomed and set up for success.</t>
   </si>
   <si>
@@ -1500,9 +1469,6 @@
     <t>Chief of Staff - Support and guide a dedicated team to successfully execute Hackathon 2025 at Seneca Polytechnic by fostering collaboration, ensuring efficient resource use, and helping achieve key milestones.</t>
   </si>
   <si>
-    <t>Computer Systems Technology</t>
-  </si>
-  <si>
     <t>Rahul Mamania</t>
   </si>
   <si>
@@ -1512,12 +1478,6 @@
     <t>IT Director</t>
   </si>
   <si>
-    <t>Bachelor of Computer Science (Honours)</t>
-  </si>
-  <si>
-    <t>project management IT (PMCC)</t>
-  </si>
-  <si>
     <t>Krishita Vakil</t>
   </si>
   <si>
@@ -1554,9 +1514,6 @@
     <t>https://drive.google.com/open?id=15r7a1OkDvAtlQGZg3ZjPxNxhdSq_RTZv</t>
   </si>
   <si>
-    <t>Project Management- Information Technology</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1LL7s2YlXMluLRwkEhFcP2fpzOMK-8bOK</t>
   </si>
   <si>
@@ -1566,9 +1523,6 @@
     <t>QA Officer</t>
   </si>
   <si>
-    <t>York University- Digital marketing</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1QilLWrXkOajF_UJ1WmSKQtcRdgR8V-cX</t>
   </si>
   <si>
@@ -1578,9 +1532,6 @@
     <t>Content Manager, Marketing</t>
   </si>
   <si>
-    <t>Computer Systems Technician</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1_koNF9Te7swcY0kHL45RTswkPO-plyni</t>
   </si>
   <si>
@@ -1596,9 +1547,6 @@
     <t>Andy Huesca</t>
   </si>
   <si>
-    <t>EMP</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1dOK4SeqZXn3zDV0u5bxvVgRgC2wKlfkT</t>
   </si>
   <si>
@@ -1608,9 +1556,6 @@
     <t>Tech Support-Production</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor's of Computer science </t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1drYEhY3m5RBop9Eh7bHjgoM7VNK2Gb-w</t>
   </si>
   <si>
@@ -1620,9 +1565,6 @@
     <t>Winona Wirindra</t>
   </si>
   <si>
-    <t>Diploma in Creative Advertising</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1m5EQNw7FrZgKbHNtFzWK19E6vkOv7P2p</t>
   </si>
   <si>
@@ -1638,18 +1580,238 @@
     <t>aarora9525@conestogac.on.ca</t>
   </si>
   <si>
+    <t>siddhi4328@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan108@my.yorku.ca</t>
+  </si>
+  <si>
+    <t>wdifernando@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W Dinithi Indrachaya Fernando</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Siddhi Patel</t>
+  </si>
+  <si>
+    <t>Pavan Anandakumar</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>Mehta Vidhi</t>
+  </si>
+  <si>
+    <t>Huong Mai Nguyen</t>
+  </si>
+  <si>
+    <t>Soumya Saraswati</t>
+  </si>
+  <si>
+    <t>Sanjan</t>
+  </si>
+  <si>
+    <t>Shivani Nalamati</t>
+  </si>
+  <si>
+    <t>Shakila Samaradiwakara</t>
+  </si>
+  <si>
+    <t>Naitik Raval</t>
+  </si>
+  <si>
+    <t>Aryan Sharma</t>
+  </si>
+  <si>
+    <t>Kaifee Ali</t>
+  </si>
+  <si>
+    <t>Aayushi Sharma</t>
+  </si>
+  <si>
+    <t>Shaurya Sharma</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LDj93MB3ofu-_jfFRGCDdmhJlLnjcW2H</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ayush-shah-15a839246/</t>
+  </si>
+  <si>
+    <t>Partner Experience Officer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QM7Kqm-LxA1TLNtJjTODWOLWjnNz25-e</t>
+  </si>
+  <si>
+    <t>Partner Experience - Manager, School Relations</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eU3y22OwZ8Xvg-3FGD47qq_iWsvkkfZ7</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidhimehta236/</t>
+  </si>
+  <si>
+    <t>As the Content Strategist and Marketing Manager for Seneca Hackathon 2025, I was responsible for developing and executing a comprehensive content strategy across multiple platforms. This involved crafting impactful messaging, managing social media campaigns, and ensuring consistent brand communication to effectively engage the audience.  My efforts focused on highlighting the innovation, collaboration, and achievements that defined the hackathon, leaving a lasting impression and maximizing its reach.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tp_xj7CxJhTWWeXSb7vZ-GsK8QBBG_Va</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/huong-mai-nguyen-263631201/</t>
+  </si>
+  <si>
+    <t>As a Student Success Officer, I accompany participants throughout the Hackathon and support them. In addition, I also connect them with the organizing team.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LX6hwca9a0f2WbjovANr-djOHUqsUGVe</t>
+  </si>
+  <si>
+    <t>audio, lighting, Set up teardown</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aqjdsxVCHgsRZp5EqOxFUyNCVwv-rBB0</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanjan-monga-b6054a328?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video assistance, lighting, Audio support ,setup/teardown </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HMmzK_fHChqnYcAxpzdhKQ2Fql2jrzyr</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shivani-n-/</t>
+  </si>
+  <si>
+    <t>I am working in marketing team</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PBCyVeQRgHjkm3dA-6ZyWBLM23Zs6YZA</t>
+  </si>
+  <si>
+    <t>Director, Registration</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WbGCG8OPMf8Xx1ld2sUQ_y2GldXBnOe2</t>
+  </si>
+  <si>
+    <t>Swag Officer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mJjSoVLFC2QF5AMjI7B4_L_c2JPEJg5_</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nsabhinaya/</t>
+  </si>
+  <si>
+    <t>Project Control Officer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shakila-rajapakse/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14NpID5Dha2IoL8qApMoU2i1RIKfESMS1</t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/shikha-thing-82ab52177</t>
+  </si>
+  <si>
+    <t>Weekly Reports Officer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ujhX0gmpqZws-RT5FMHYEUqR0n9rWhfb</t>
+  </si>
+  <si>
+    <t>Registration Manager</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dF4UBgpXNhmyZZOYcdj4I5m-aBklExeX</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aryan-sharma-682a46290</t>
+  </si>
+  <si>
+    <t>Frontend UI developer, worked on the styling and UI Elements of the Seneca Hackathon webpage</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1T5h0SN3_Zfg8zjtj4WYwAm645cRPt2KB</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/kaifee-ali-23a3aa7a/</t>
+  </si>
+  <si>
+    <t>Videographer</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FLSj5cEY2jrMAKkcG7a-oKjIqu_XU-pO</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aayushi-sharma-4b920070/</t>
+  </si>
+  <si>
+    <t>Content Lead</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shaurya0908/</t>
+  </si>
+  <si>
+    <t>Officer Student Success</t>
+  </si>
+  <si>
+    <t>nallamatishivani18@gmail.com</t>
+  </si>
+  <si>
+    <t>kali64@myseneca.ca</t>
+  </si>
+  <si>
+    <t>amsharma1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ssaraswati@myseneca.ca</t>
+  </si>
+  <si>
+    <t>sanjan1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>asharma614@myseneca.ca</t>
+  </si>
+  <si>
+    <t>ssharma596@myseneca.ca</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/soumya-saraswati-33b0871a7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>siddhi4328@gmail.com</t>
-  </si>
-  <si>
-    <t>Pavan Anandakumar</t>
+    <t>Ssamaradiwakara6070@conestogac.on.ca</t>
+  </si>
+  <si>
+    <t>vidhi236@my.yorku.ca</t>
+  </si>
+  <si>
+    <t>ayushshahas17@outlook.com</t>
+  </si>
+  <si>
+    <t>Abhinaya Narayanan Subramanian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pavan108@my.yorku.ca</t>
+    <t>https://drive.google.com/file/d/1zEn6rerBv3fw7kH0-xTuSJcBHEMHyxbM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lzfmntWxDODwvy0gYtiM6gLwJdjPD6Jh/view?usp=drive_link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YbWDrn0URyo_Cttzwt7UJXAvJ_1ADkbU/view?usp=drive_link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1657,9 +1819,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,6 +1864,26 @@
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1711,7 +1893,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1811,36 +1993,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
@@ -1854,13 +2006,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1870,17 +2068,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1888,58 +2075,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{841C3931-2774-45F4-9F02-4E3BA09BCE6E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{07346F99-54B8-40B3-8AEE-D5855B0EFFA8}"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1968,12 +2154,36 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="第 1 张表单回复-style" pivot="0" count="3" xr9:uid="{11550001-D47F-473B-A9B9-D4963A6A964B}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1987,18 +2197,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K92" totalsRowShown="0">
-  <autoFilter ref="A1:K92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K109" totalsRowShown="0">
+  <autoFilter ref="A1:K109" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="8">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="id"/>
@@ -2019,56 +2225,56 @@
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="7">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responder"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="6">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="responderName"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Full Name" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Full Name" dataDxfId="5">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rcbccae7987da4248af1de425a392c0cf"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Upload Your Profile Photo" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Upload Your Profile Photo" dataDxfId="4">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r4d1dfc31a8eb49a7a9775fdf5f2ccc0a"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn Profile" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="LinkedIn Profile" dataDxfId="3">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r5a444e7413e14d358004e34cdcf48851"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Short Bio or Role Description" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Short Bio or Role Description" dataDxfId="2">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rbdeebd1aae904721a2a072f795b3e93b"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Additional Information (Optional)" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Additional Information (Optional)" dataDxfId="1">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="r49b89da1c62d451689c05bfaba114702"/>
         </ext>
       </extLst>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{99A41476-DEBC-465E-A0E4-E43C9123BF41}" name="Which course are you currently enrolled in? (Please write Alumni if you have graduated.)" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{99A41476-DEBC-465E-A0E4-E43C9123BF41}" name="Which course are you currently enrolled in? (Please write Alumni if you have graduated.)" dataDxfId="0">
       <extLst>
         <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{FCC71383-01E1-4257-9335-427F07BE8D7F}">
           <xlmsforms:question id="rf67b47d4fcb841bab25839bf4c805dde"/>
@@ -2394,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2455,26 +2661,26 @@
         <v>45686.661909722221</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2488,26 +2694,26 @@
         <v>45680.598993055559</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2521,28 +2727,28 @@
         <v>45683.844085648147</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" t="s">
         <v>234</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -2556,26 +2762,26 @@
         <v>45686.812164351853</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2589,26 +2795,26 @@
         <v>45685.709444444445</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2622,26 +2828,26 @@
         <v>45686.685613425929</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2655,26 +2861,26 @@
         <v>45682.553495370368</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2688,26 +2894,26 @@
         <v>45686.958634259259</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2721,26 +2927,26 @@
         <v>45687.001516203702</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2754,26 +2960,26 @@
         <v>45691.847048611111</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="360" x14ac:dyDescent="0.25">
@@ -2787,28 +2993,28 @@
         <v>45675.022870370398</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" t="s">
         <v>147</v>
-      </c>
-      <c r="K12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2822,26 +3028,26 @@
         <v>45682.619467592594</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2855,28 +3061,28 @@
         <v>45688.854733796295</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,26 +3096,26 @@
         <v>45686.839953703704</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>328</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,26 +3129,26 @@
         <v>45686.764386574076</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -2956,26 +3162,26 @@
         <v>45688.775509259256</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -2989,26 +3195,26 @@
         <v>45689.734270833331</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -3022,26 +3228,26 @@
         <v>45685.985578703701</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="H19" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3055,26 +3261,26 @@
         <v>45686.71974537037</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>309</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -3088,26 +3294,26 @@
         <v>45692.681608796294</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3121,26 +3327,26 @@
         <v>45709.002928240698</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3154,28 +3360,28 @@
         <v>45675.76902777778</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="K23" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,26 +3395,26 @@
         <v>45675.693761574075</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -3222,26 +3428,26 @@
         <v>45675.401875000003</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,26 +3461,26 @@
         <v>45681.803356481483</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="I26" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -3288,26 +3494,26 @@
         <v>45685.871701388889</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="H27" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,26 +3527,26 @@
         <v>45677.600173611114</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="I28" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3354,26 +3560,26 @@
         <v>45685.920983796299</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="I29" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="129.6" x14ac:dyDescent="0.25">
@@ -3387,26 +3593,26 @@
         <v>45686.704814814817</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="I30" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
@@ -3420,26 +3626,26 @@
         <v>45679.838055555556</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3453,26 +3659,26 @@
         <v>45684.941180555557</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="I32" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3486,26 +3692,26 @@
         <v>45679.736539351848</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="I33" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="158.4" x14ac:dyDescent="0.25">
@@ -3519,26 +3725,26 @@
         <v>45675.751585648148</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3552,26 +3758,26 @@
         <v>45679.83971064815</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="H35" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="I35" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3585,26 +3791,26 @@
         <v>45689.762974537036</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
@@ -3617,27 +3823,27 @@
       <c r="C37" s="1">
         <v>45676.635625000003</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="I37" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.25">
@@ -3651,26 +3857,26 @@
         <v>45685.925451388888</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="I38" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
@@ -3684,26 +3890,26 @@
         <v>45687.533773148149</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.25">
@@ -3717,28 +3923,28 @@
         <v>45678.003009259301</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="I40" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="J40" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="K40" t="s">
         <v>185</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K40" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
@@ -3752,26 +3958,26 @@
         <v>45686.686006944445</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="I41" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.25">
@@ -3785,26 +3991,26 @@
         <v>45686.697708333333</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="H42" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="I42" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4158,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>76</v>
@@ -4218,7 +4424,7 @@
         <v>84</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>85</v>
@@ -4424,19 +4630,19 @@
         <v>122</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>123</v>
+        <v>576</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="I63" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="J63" s="2"/>
     </row>
@@ -4451,26 +4657,26 @@
         <v>45667.490335648203</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23</v>
       </c>
@@ -4481,26 +4687,26 @@
         <v>45668.655092592591</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I65" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -4511,676 +4717,1058 @@
         <v>45670.655057870368</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="I66" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="7">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="11">
         <v>45719.799443171301</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="12">
+        <v>45719.873041539351</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="11">
+        <v>45719.88118034722</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C70" s="12">
+        <v>45719.885935300925</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="11">
+        <v>45719.886403645833</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="12">
+        <v>45719.894827222219</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C73" s="11">
+        <v>45719.954913437497</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C74" s="12">
+        <v>45719.968188067127</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C75" s="11">
+        <v>45719.979304247681</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="I67" s="16" t="s">
+      <c r="E75" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G75" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="8">
-        <v>45719.873041539351</v>
-      </c>
-      <c r="D68" s="14" t="s">
+      <c r="H75" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C76" s="12">
+        <v>45719.982414363425</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="I68" s="18" t="s">
+      <c r="E76" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" s="11">
+        <v>45719.999470196759</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="I77" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="7">
-        <v>45719.88118034722</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="F69" s="16" t="s">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" s="12">
+        <v>45720.488428611112</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="G69" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I69" s="16" t="s">
+      <c r="F78" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" s="11">
+        <v>45720.654069224533</v>
+      </c>
+      <c r="D79" t="s">
+        <v>503</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="I79" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="8">
-        <v>45719.885935300925</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="7">
-        <v>45719.886403645833</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="F71" s="16" t="s">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="12">
+        <v>45720.78224670139</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="11">
+        <v>45720.847401956024</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="G71" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="I71" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="8">
-        <v>45719.894827222219</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E72" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="F72" s="18" t="s">
+      <c r="F81" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="G81" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="7">
-        <v>45719.954913437497</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C74" s="8">
-        <v>45719.968188067127</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>474</v>
-      </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="7">
-        <v>45719.979304247681</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="8">
-        <v>45719.982414363425</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="7">
-        <v>45719.999470196759</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="8">
-        <v>45720.488428611112</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="H78" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="7">
-        <v>45720.654069224533</v>
-      </c>
-      <c r="D79" t="s">
-        <v>522</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="C80" s="8">
-        <v>45720.78224670139</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="E80" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="G80" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="10"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="10"/>
-      <c r="C81" s="7">
-        <v>45720.847401956024</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>484</v>
       </c>
       <c r="H81" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="I81" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C82" s="12">
+        <v>45721.564685972218</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C83" s="11">
+        <v>45721.888644479171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>504</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C84" s="12">
+        <v>45722.857292546294</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="11">
+        <v>45722.875584062502</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="12">
+        <v>45723.020868217594</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C87" s="11">
+        <v>45725.873511550926</v>
+      </c>
+      <c r="D87" t="s">
+        <v>505</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="G87" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="J81" s="11"/>
-      <c r="K81" s="10"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="C82" s="8">
-        <v>45721.564685972218</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="18" t="s">
+      <c r="H87" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="G82" s="19" t="s">
+      <c r="I87" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="H82" s="19" t="s">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="12">
+        <v>45726.530941840276</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="I82" s="18" t="s">
+      <c r="H88" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="J82" s="11"/>
-      <c r="K82" s="10"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="C83" s="7">
-        <v>45721.888644479171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>524</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="I83" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="J83" s="11"/>
-      <c r="K83" s="10"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="C84" s="8">
-        <v>45722.857292546294</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="E84" s="18" t="s">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C89" s="11">
+        <v>45726.650853321757</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="17" t="s">
         <v>490</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="10"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="C85" s="7">
-        <v>45722.875584062502</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="I85" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="10"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="C86" s="8">
-        <v>45723.020868217594</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E86" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="10"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="C87" s="7">
-        <v>45725.873511550926</v>
-      </c>
-      <c r="D87" t="s">
-        <v>526</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>501</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="10"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="C88" s="8">
-        <v>45726.530941840276</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>504</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="10"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="C89" s="7">
-        <v>45726.650853321757</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>506</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I89" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="J89" s="11"/>
-      <c r="K89" s="10"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="C90" s="8">
+      <c r="I89" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="12">
         <v>45726.662231979164</v>
       </c>
-      <c r="D90" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="E90" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="G90" s="19" t="s">
+      <c r="D90" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="I90" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C91" s="11">
+        <v>45726.683793680553</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="I91" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C92" s="12">
+        <v>45726.818197905093</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C93" s="11">
+        <v>45726.899962731477</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="H90" s="19" t="s">
+      <c r="F93" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="12">
+        <v>45726.900201597222</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C95" s="11">
+        <v>45726.937757395834</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="I90" s="18" t="s">
+      <c r="F95" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="I95" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="12">
+        <v>45726.939952534725</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="J90" s="11"/>
-      <c r="K90" s="10"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="C91" s="7">
-        <v>45726.683793680553</v>
-      </c>
-      <c r="D91" s="12" t="s">
+      <c r="F96" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="I96" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" s="11">
+        <v>45726.983095324074</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="I97" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="12">
+        <v>45727.004515752313</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="I98" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="11">
+        <v>45727.299762222217</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C100" s="12">
+        <v>45727.352533171295</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I100" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="11">
+        <v>45727.482564618054</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="12">
+        <v>45727.641773090276</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="11">
+        <v>45727.663368182868</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>573</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="12">
+        <v>45728.084605462966</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="H104" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105" s="11">
+        <v>45728.386568518516</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="G105" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106" s="12">
+        <v>45728.761242777779</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="11">
+        <v>45728.763991273147</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G107" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="H107" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="12">
+        <v>45728.779622615737</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="13">
+        <v>45728.878916875001</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E91" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="10"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="C92" s="9">
-        <v>45726.818197905093</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="F92" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="I92" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="10"/>
+      <c r="F109" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="G109" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>563</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="J109" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5237,63 +5825,97 @@
     <hyperlink ref="H23" r:id="rId50" xr:uid="{9E2E8F65-A9B3-49F2-8F64-D29DBE4E02FC}"/>
     <hyperlink ref="H28" r:id="rId51" xr:uid="{6172FC36-6AFE-47AE-954D-8F45FE05E6AA}"/>
     <hyperlink ref="H32" r:id="rId52" xr:uid="{A82EEFC3-966F-41E4-8B80-1D5962557BB7}"/>
-    <hyperlink ref="G67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G68" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G70" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="H71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H72" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G73" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H73" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G74" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H74" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G75" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G76" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G77" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H81" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G82" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H82" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G83" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H83" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G84" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H84" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G85" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H85" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G86" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G87" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H87" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G88" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H88" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G89" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G90" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H90" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G91" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H91" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G92" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H92" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D37" r:id="rId53" xr:uid="{F5FB1CFB-2FBD-4F0F-9F8F-0CD32508A084}"/>
+    <hyperlink ref="G67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H68" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G69" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H71" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G72" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="H72" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G73" r:id="rId66" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="H73" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G74" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="H74" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G75" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H75" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G76" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H80" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G81" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H81" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G82" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H82" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G83" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H83" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G84" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H84" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G85" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H85" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G86" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H86" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G87" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H87" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G88" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H88" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G89" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H89" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G90" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H90" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G91" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H91" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G92" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H92" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G93" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H93" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G94" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H94" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G95" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H95" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G96" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H96" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G97" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G98" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H98" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G99" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H99" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G100" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H100" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G101" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H101" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G102" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H102" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G103" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H103" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G104" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H104" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G105" r:id="rId129" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H105" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G106" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H106" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G107" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H107" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G108" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H108" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H109" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H97" r:id="rId138" xr:uid="{FE4B5546-AF12-42FB-893D-AC0FAFA2FF07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId105"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId139"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId140"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5512,6 +6134,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
@@ -5520,15 +6151,6 @@
     <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5551,26 +6173,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C3FA0A-40DD-4D20-BCCA-F1C9A569603C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9720360-18E6-4E5E-8A1A-A2DF68DE7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19020" yWindow="1464" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15420" yWindow="1932" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{63092EEC-E561-44FF-8C2E-3D61D7D2B058}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>回复者已更新此值。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="619">
   <si>
     <t>Id</t>
   </si>
@@ -1813,6 +1837,124 @@
     <t>https://drive.google.com/file/d/1YbWDrn0URyo_Cttzwt7UJXAvJ_1ADkbU/view?usp=drive_link</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Mehta Vidhi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13yfYQuwjl0p1sHeaAD53Udc_WIu_FZ8G</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harmanjot-singh-05807820b?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>Working in Registration Team</t>
+  </si>
+  <si>
+    <t>Haru Ai Okabe</t>
+  </si>
+  <si>
+    <t>Event and Media Production</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kOulKtSTul33QovaultMkBFaSES_LupB</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/haru-ai/</t>
+  </si>
+  <si>
+    <t>Technical Lead</t>
+  </si>
+  <si>
+    <t>Talia Ghalayini</t>
+  </si>
+  <si>
+    <t>Computer Engineering Technology ECT</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tlRIW1qw3tT9fN3NwsFQkMs4J0mByImr</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/talia-ghalayini</t>
+  </si>
+  <si>
+    <t>communication manager</t>
+  </si>
+  <si>
+    <t>Bachelor's of Computer science (Honours)</t>
+  </si>
+  <si>
+    <t>Honours Bachelor of Technology – Software Development (BSD)</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>Alumni, CPA</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>Web Development - Conestoga College</t>
+  </si>
+  <si>
+    <t>Computer Systems Technology</t>
+  </si>
+  <si>
+    <t>Bachelor of Computer Science (Honours)</t>
+  </si>
+  <si>
+    <t>project management IT (PMCC)</t>
+  </si>
+  <si>
+    <t>Project Management- Information Technology</t>
+  </si>
+  <si>
+    <t>York University- Digital marketing</t>
+  </si>
+  <si>
+    <t>Computer Systems Technician</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor's of Computer science </t>
+  </si>
+  <si>
+    <t>Diploma in Creative Advertising</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Digital And Content Marketing</t>
+  </si>
+  <si>
+    <t>Event and Media productions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event And Media Production </t>
+  </si>
+  <si>
+    <t>Web Development</t>
+  </si>
+  <si>
+    <t>Project Management Information Technology</t>
+  </si>
+  <si>
+    <t>Accounting &amp; Finance (ACF</t>
+  </si>
+  <si>
+    <t>haokabe@myseneca.ca</t>
+  </si>
+  <si>
+    <t>tghalayini1@myseneca.ca</t>
+  </si>
 </sst>
 </file>
 
@@ -1821,7 +1963,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1884,6 +2026,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1893,7 +2051,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2051,6 +2209,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2058,7 +2244,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2116,6 +2302,50 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2198,8 +2428,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K109" totalsRowShown="0">
-  <autoFilter ref="A1:K109" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K112" totalsRowShown="0">
+  <autoFilter ref="A1:K112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2599,11 +2829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4676,7 +4906,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23</v>
       </c>
@@ -4706,7 +4936,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -4736,7 +4966,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C67" s="11">
         <v>45719.799443171301</v>
       </c>
@@ -4759,8 +4989,11 @@
         <v>460</v>
       </c>
       <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C68" s="12">
         <v>45719.873041539351</v>
       </c>
@@ -4783,8 +5016,11 @@
         <v>430</v>
       </c>
       <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C69" s="11">
         <v>45719.88118034722</v>
       </c>
@@ -4807,8 +5043,11 @@
         <v>431</v>
       </c>
       <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C70" s="12">
         <v>45719.885935300925</v>
       </c>
@@ -4831,8 +5070,11 @@
         <v>463</v>
       </c>
       <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="34" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C71" s="11">
         <v>45719.886403645833</v>
       </c>
@@ -4855,8 +5097,11 @@
         <v>311</v>
       </c>
       <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C72" s="12">
         <v>45719.894827222219</v>
       </c>
@@ -4879,8 +5124,11 @@
         <v>432</v>
       </c>
       <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C73" s="11">
         <v>45719.954913437497</v>
       </c>
@@ -4905,8 +5153,11 @@
       <c r="J73" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C74" s="12">
         <v>45719.968188067127</v>
       </c>
@@ -4929,8 +5180,11 @@
         <v>464</v>
       </c>
       <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C75" s="11">
         <v>45719.979304247681</v>
       </c>
@@ -4953,8 +5207,11 @@
         <v>466</v>
       </c>
       <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C76" s="12">
         <v>45719.982414363425</v>
       </c>
@@ -4977,8 +5234,11 @@
         <v>434</v>
       </c>
       <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C77" s="11">
         <v>45719.999470196759</v>
       </c>
@@ -5001,8 +5261,11 @@
         <v>435</v>
       </c>
       <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C78" s="12">
         <v>45720.488428611112</v>
       </c>
@@ -5025,8 +5288,11 @@
         <v>469</v>
       </c>
       <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C79" s="11">
         <v>45720.654069224533</v>
       </c>
@@ -5049,8 +5315,11 @@
         <v>436</v>
       </c>
       <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C80" s="12">
         <v>45720.78224670139</v>
       </c>
@@ -5073,8 +5342,11 @@
         <v>437</v>
       </c>
       <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" s="11">
         <v>45720.847401956024</v>
       </c>
@@ -5097,8 +5369,11 @@
         <v>472</v>
       </c>
       <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" s="12">
         <v>45721.564685972218</v>
       </c>
@@ -5121,8 +5396,11 @@
         <v>476</v>
       </c>
       <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" s="11">
         <v>45721.888644479171</v>
       </c>
@@ -5145,8 +5423,11 @@
         <v>438</v>
       </c>
       <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" s="12">
         <v>45722.857292546294</v>
       </c>
@@ -5169,8 +5450,11 @@
         <v>480</v>
       </c>
       <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" s="11">
         <v>45722.875584062502</v>
       </c>
@@ -5193,8 +5477,11 @@
         <v>476</v>
       </c>
       <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" s="12">
         <v>45723.020868217594</v>
       </c>
@@ -5217,8 +5504,11 @@
         <v>484</v>
       </c>
       <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="34" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C87" s="11">
         <v>45725.873511550926</v>
       </c>
@@ -5241,8 +5531,11 @@
         <v>487</v>
       </c>
       <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="36" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C88" s="12">
         <v>45726.530941840276</v>
       </c>
@@ -5265,8 +5558,11 @@
         <v>489</v>
       </c>
       <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="34" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C89" s="11">
         <v>45726.650853321757</v>
       </c>
@@ -5289,8 +5585,11 @@
         <v>491</v>
       </c>
       <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C90" s="12">
         <v>45726.662231979164</v>
       </c>
@@ -5313,8 +5612,11 @@
         <v>495</v>
       </c>
       <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="34" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C91" s="11">
         <v>45726.683793680553</v>
       </c>
@@ -5337,8 +5639,11 @@
         <v>497</v>
       </c>
       <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C92" s="12">
         <v>45726.818197905093</v>
       </c>
@@ -5361,8 +5666,11 @@
         <v>501</v>
       </c>
       <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="34" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C93" s="11">
         <v>45726.899962731477</v>
       </c>
@@ -5385,8 +5693,11 @@
         <v>524</v>
       </c>
       <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C94" s="12">
         <v>45726.900201597222</v>
       </c>
@@ -5409,16 +5720,19 @@
         <v>526</v>
       </c>
       <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C95" s="11">
         <v>45726.937757395834</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>511</v>
+      <c r="E95" s="25" t="s">
+        <v>580</v>
       </c>
       <c r="F95" s="14" t="s">
         <v>511</v>
@@ -5433,8 +5747,11 @@
         <v>529</v>
       </c>
       <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C96" s="12">
         <v>45726.939952534725</v>
       </c>
@@ -5457,8 +5774,11 @@
         <v>532</v>
       </c>
       <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C97" s="11">
         <v>45726.983095324074</v>
       </c>
@@ -5481,8 +5801,11 @@
         <v>534</v>
       </c>
       <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="36" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C98" s="12">
         <v>45727.004515752313</v>
       </c>
@@ -5505,8 +5828,11 @@
         <v>537</v>
       </c>
       <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="34" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C99" s="11">
         <v>45727.299762222217</v>
       </c>
@@ -5529,8 +5855,11 @@
         <v>540</v>
       </c>
       <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C100" s="12">
         <v>45727.352533171295</v>
       </c>
@@ -5553,8 +5882,11 @@
         <v>542</v>
       </c>
       <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C101" s="11">
         <v>45727.482564618054</v>
       </c>
@@ -5577,8 +5909,11 @@
         <v>544</v>
       </c>
       <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C102" s="12">
         <v>45727.641773090276</v>
       </c>
@@ -5601,8 +5936,11 @@
         <v>547</v>
       </c>
       <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C103" s="11">
         <v>45727.663368182868</v>
       </c>
@@ -5625,8 +5963,11 @@
         <v>177</v>
       </c>
       <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="36" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C104" s="12">
         <v>45728.084605462966</v>
       </c>
@@ -5649,8 +5990,11 @@
         <v>551</v>
       </c>
       <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C105" s="11">
         <v>45728.386568518516</v>
       </c>
@@ -5673,8 +6017,11 @@
         <v>553</v>
       </c>
       <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C106" s="12">
         <v>45728.761242777779</v>
       </c>
@@ -5697,8 +6044,11 @@
         <v>556</v>
       </c>
       <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C107" s="11">
         <v>45728.763991273147</v>
       </c>
@@ -5721,8 +6071,11 @@
         <v>559</v>
       </c>
       <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C108" s="12">
         <v>45728.779622615737</v>
       </c>
@@ -5745,8 +6098,11 @@
         <v>562</v>
       </c>
       <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C109" s="13">
         <v>45728.878916875001</v>
       </c>
@@ -5769,6 +6125,94 @@
         <v>564</v>
       </c>
       <c r="J109" s="2"/>
+      <c r="K109" s="36" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="C110" s="26">
+        <v>45729.108823287039</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F110" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G110" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="I110" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="J110" s="29"/>
+      <c r="K110" s="34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="C111" s="27">
+        <v>45729.536587986113</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="E111" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="F111" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="G111" s="37" t="s">
+        <v>587</v>
+      </c>
+      <c r="H111" s="37" t="s">
+        <v>588</v>
+      </c>
+      <c r="I111" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="J111" s="29"/>
+      <c r="K111" s="36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="30"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="32">
+        <v>45730.514499641205</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="F112" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="H112" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="I112" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="J112" s="33"/>
+      <c r="K112" s="38" t="s">
+        <v>591</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5911,16 +6355,34 @@
     <hyperlink ref="H108" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="H109" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="H97" r:id="rId138" xr:uid="{FE4B5546-AF12-42FB-893D-AC0FAFA2FF07}"/>
+    <hyperlink ref="G110" r:id="rId139" xr:uid="{57051396-EDFB-4AAB-A1B4-6804F7A68A30}"/>
+    <hyperlink ref="H110" r:id="rId140" xr:uid="{AC13D95B-0612-4842-9D0E-CF79A4D02C67}"/>
+    <hyperlink ref="G111" r:id="rId141" xr:uid="{2FE2D665-BA15-44E8-8D45-B20284002192}"/>
+    <hyperlink ref="H111" r:id="rId142" xr:uid="{516E9B11-C6D7-46B1-AF77-3CC438A1CD8F}"/>
+    <hyperlink ref="G112" r:id="rId143" xr:uid="{845D3B0D-C280-452A-9164-E07C7A4AB1EF}"/>
+    <hyperlink ref="H112" r:id="rId144" xr:uid="{3B939D9F-06F7-40C1-8890-4997A28AA698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId139"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
+  <legacyDrawing r:id="rId146"/>
   <tableParts count="1">
-    <tablePart r:id="rId140"/>
+    <tablePart r:id="rId147"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -6133,7 +6595,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6142,18 +6604,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6172,27 +6640,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9720360-18E6-4E5E-8A1A-A2DF68DE7BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DE9D98-0B76-481E-9F70-50D108D5A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="1932" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2268" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="627">
   <si>
     <t>Id</t>
   </si>
@@ -1954,6 +1954,30 @@
   </si>
   <si>
     <t>tghalayini1@myseneca.ca</t>
+  </si>
+  <si>
+    <t>zldlerin@myseneca.ca</t>
+  </si>
+  <si>
+    <t>cliberman@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Zoe Lara Denise Lerin</t>
+  </si>
+  <si>
+    <t>Connor Liberman</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_Z2AgsSAKI92LphOBIJYyDKpZ6Uznn0O</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/ zoe-lara-denise-lerin-7b94a634a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1L7V9eDoHm-AYcg7zHzqWLs_N63RmBKzs</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/connor-liberman-02a582274</t>
   </si>
 </sst>
 </file>
@@ -2313,14 +2337,9 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2348,6 +2367,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2427,9 +2451,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K112" totalsRowShown="0">
-  <autoFilter ref="A1:K112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K114" totalsRowShown="0">
+  <autoFilter ref="A1:K114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2830,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D112"/>
+    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3052,7 @@
       <c r="C6" s="1">
         <v>45685.709444444445</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4826,7 +4854,7 @@
       <c r="C62" s="1">
         <v>45666.902361111112</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -4989,7 +5017,7 @@
         <v>460</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="36" t="s">
+      <c r="K67" s="31" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5016,7 +5044,7 @@
         <v>430</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="29" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5043,7 +5071,7 @@
         <v>431</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="36" t="s">
+      <c r="K69" s="31" t="s">
         <v>595</v>
       </c>
     </row>
@@ -5070,7 +5098,7 @@
         <v>463</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="34" t="s">
+      <c r="K70" s="29" t="s">
         <v>596</v>
       </c>
     </row>
@@ -5097,7 +5125,7 @@
         <v>311</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="36" t="s">
+      <c r="K71" s="31" t="s">
         <v>597</v>
       </c>
     </row>
@@ -5124,7 +5152,7 @@
         <v>432</v>
       </c>
       <c r="J72" s="2"/>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="29" t="s">
         <v>598</v>
       </c>
     </row>
@@ -5153,7 +5181,7 @@
       <c r="J73" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="K73" s="36" t="s">
+      <c r="K73" s="31" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5180,7 +5208,7 @@
         <v>464</v>
       </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="34" t="s">
+      <c r="K74" s="29" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5207,7 +5235,7 @@
         <v>466</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="36" t="s">
+      <c r="K75" s="31" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5234,7 +5262,7 @@
         <v>434</v>
       </c>
       <c r="J76" s="2"/>
-      <c r="K76" s="34" t="s">
+      <c r="K76" s="29" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5261,7 +5289,7 @@
         <v>435</v>
       </c>
       <c r="J77" s="2"/>
-      <c r="K77" s="36" t="s">
+      <c r="K77" s="31" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5288,7 +5316,7 @@
         <v>469</v>
       </c>
       <c r="J78" s="2"/>
-      <c r="K78" s="34" t="s">
+      <c r="K78" s="29" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5315,7 +5343,7 @@
         <v>436</v>
       </c>
       <c r="J79" s="2"/>
-      <c r="K79" s="36" t="s">
+      <c r="K79" s="31" t="s">
         <v>602</v>
       </c>
     </row>
@@ -5342,7 +5370,7 @@
         <v>437</v>
       </c>
       <c r="J80" s="2"/>
-      <c r="K80" s="34" t="s">
+      <c r="K80" s="29" t="s">
         <v>603</v>
       </c>
     </row>
@@ -5369,7 +5397,7 @@
         <v>472</v>
       </c>
       <c r="J81" s="2"/>
-      <c r="K81" s="36" t="s">
+      <c r="K81" s="31" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5396,7 +5424,7 @@
         <v>476</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="34" t="s">
+      <c r="K82" s="29" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5423,7 +5451,7 @@
         <v>438</v>
       </c>
       <c r="J83" s="2"/>
-      <c r="K83" s="36" t="s">
+      <c r="K83" s="31" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5450,7 +5478,7 @@
         <v>480</v>
       </c>
       <c r="J84" s="2"/>
-      <c r="K84" s="34" t="s">
+      <c r="K84" s="29" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5477,7 +5505,7 @@
         <v>476</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="K85" s="36" t="s">
+      <c r="K85" s="31" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5504,7 +5532,7 @@
         <v>484</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="29" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5531,7 +5559,7 @@
         <v>487</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="36" t="s">
+      <c r="K87" s="31" t="s">
         <v>605</v>
       </c>
     </row>
@@ -5558,7 +5586,7 @@
         <v>489</v>
       </c>
       <c r="J88" s="2"/>
-      <c r="K88" s="34" t="s">
+      <c r="K88" s="29" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5585,7 +5613,7 @@
         <v>491</v>
       </c>
       <c r="J89" s="2"/>
-      <c r="K89" s="36" t="s">
+      <c r="K89" s="31" t="s">
         <v>599</v>
       </c>
     </row>
@@ -5612,7 +5640,7 @@
         <v>495</v>
       </c>
       <c r="J90" s="2"/>
-      <c r="K90" s="34" t="s">
+      <c r="K90" s="29" t="s">
         <v>607</v>
       </c>
     </row>
@@ -5639,7 +5667,7 @@
         <v>497</v>
       </c>
       <c r="J91" s="2"/>
-      <c r="K91" s="36" t="s">
+      <c r="K91" s="31" t="s">
         <v>608</v>
       </c>
     </row>
@@ -5666,7 +5694,7 @@
         <v>501</v>
       </c>
       <c r="J92" s="2"/>
-      <c r="K92" s="34" t="s">
+      <c r="K92" s="29" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5693,7 +5721,7 @@
         <v>524</v>
       </c>
       <c r="J93" s="2"/>
-      <c r="K93" s="36" t="s">
+      <c r="K93" s="31" t="s">
         <v>610</v>
       </c>
     </row>
@@ -5720,7 +5748,7 @@
         <v>526</v>
       </c>
       <c r="J94" s="2"/>
-      <c r="K94" s="34" t="s">
+      <c r="K94" s="29" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5747,7 +5775,7 @@
         <v>529</v>
       </c>
       <c r="J95" s="2"/>
-      <c r="K95" s="36" t="s">
+      <c r="K95" s="31" t="s">
         <v>611</v>
       </c>
     </row>
@@ -5774,11 +5802,11 @@
         <v>532</v>
       </c>
       <c r="J96" s="2"/>
-      <c r="K96" s="34" t="s">
+      <c r="K96" s="29" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C97" s="11">
         <v>45726.983095324074</v>
       </c>
@@ -5801,11 +5829,11 @@
         <v>534</v>
       </c>
       <c r="J97" s="2"/>
-      <c r="K97" s="36" t="s">
+      <c r="K97" s="31" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C98" s="12">
         <v>45727.004515752313</v>
       </c>
@@ -5828,11 +5856,11 @@
         <v>537</v>
       </c>
       <c r="J98" s="2"/>
-      <c r="K98" s="34" t="s">
+      <c r="K98" s="29" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C99" s="11">
         <v>45727.299762222217</v>
       </c>
@@ -5855,11 +5883,11 @@
         <v>540</v>
       </c>
       <c r="J99" s="2"/>
-      <c r="K99" s="36" t="s">
+      <c r="K99" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="12">
         <v>45727.352533171295</v>
       </c>
@@ -5882,11 +5910,11 @@
         <v>542</v>
       </c>
       <c r="J100" s="2"/>
-      <c r="K100" s="34" t="s">
+      <c r="K100" s="29" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C101" s="11">
         <v>45727.482564618054</v>
       </c>
@@ -5909,11 +5937,11 @@
         <v>544</v>
       </c>
       <c r="J101" s="2"/>
-      <c r="K101" s="36" t="s">
+      <c r="K101" s="31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C102" s="12">
         <v>45727.641773090276</v>
       </c>
@@ -5936,11 +5964,11 @@
         <v>547</v>
       </c>
       <c r="J102" s="2"/>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C103" s="11">
         <v>45727.663368182868</v>
       </c>
@@ -5963,11 +5991,11 @@
         <v>177</v>
       </c>
       <c r="J103" s="2"/>
-      <c r="K103" s="36" t="s">
+      <c r="K103" s="31" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C104" s="12">
         <v>45728.084605462966</v>
       </c>
@@ -5990,11 +6018,11 @@
         <v>551</v>
       </c>
       <c r="J104" s="2"/>
-      <c r="K104" s="34" t="s">
+      <c r="K104" s="29" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C105" s="11">
         <v>45728.386568518516</v>
       </c>
@@ -6017,11 +6045,11 @@
         <v>553</v>
       </c>
       <c r="J105" s="2"/>
-      <c r="K105" s="36" t="s">
+      <c r="K105" s="31" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C106" s="12">
         <v>45728.761242777779</v>
       </c>
@@ -6044,11 +6072,11 @@
         <v>556</v>
       </c>
       <c r="J106" s="2"/>
-      <c r="K106" s="34" t="s">
+      <c r="K106" s="29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C107" s="11">
         <v>45728.763991273147</v>
       </c>
@@ -6071,11 +6099,11 @@
         <v>559</v>
       </c>
       <c r="J107" s="2"/>
-      <c r="K107" s="36" t="s">
+      <c r="K107" s="31" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C108" s="12">
         <v>45728.779622615737</v>
       </c>
@@ -6098,11 +6126,11 @@
         <v>562</v>
       </c>
       <c r="J108" s="2"/>
-      <c r="K108" s="34" t="s">
+      <c r="K108" s="29" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C109" s="13">
         <v>45728.878916875001</v>
       </c>
@@ -6125,94 +6153,143 @@
         <v>564</v>
       </c>
       <c r="J109" s="2"/>
-      <c r="K109" s="36" t="s">
+      <c r="K109" s="31" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C110" s="26">
         <v>45729.108823287039</v>
       </c>
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="F110" s="34" t="s">
+      <c r="F110" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="H110" s="35" t="s">
+      <c r="H110" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="I110" s="34" t="s">
+      <c r="I110" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="J110" s="29"/>
-      <c r="K110" s="34" t="s">
+      <c r="J110" s="2"/>
+      <c r="K110" s="29" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C111" s="27">
         <v>45729.536587986113</v>
       </c>
-      <c r="D111" s="41" t="s">
+      <c r="D111" s="36" t="s">
         <v>617</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="F111" s="36" t="s">
+      <c r="F111" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="G111" s="37" t="s">
+      <c r="G111" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="H111" s="37" t="s">
+      <c r="H111" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="I111" s="36" t="s">
+      <c r="I111" s="31" t="s">
         <v>589</v>
       </c>
-      <c r="J111" s="29"/>
-      <c r="K111" s="36" t="s">
+      <c r="J111" s="2"/>
+      <c r="K111" s="31" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="32">
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="28">
         <v>45730.514499641205</v>
       </c>
-      <c r="D112" s="42" t="s">
+      <c r="D112" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="E112" s="38" t="s">
+      <c r="E112" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="F112" s="38" t="s">
+      <c r="F112" s="33" t="s">
         <v>590</v>
       </c>
-      <c r="G112" s="39" t="s">
+      <c r="G112" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="H112" s="39" t="s">
+      <c r="H112" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="I112" s="38" t="s">
+      <c r="I112" s="33" t="s">
         <v>594</v>
       </c>
-      <c r="J112" s="33"/>
-      <c r="K112" s="38" t="s">
+      <c r="J112" s="2"/>
+      <c r="K112" s="33" t="s">
         <v>591</v>
       </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="C113" s="27">
+        <v>45732.740430706021</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="H113" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="I113" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J113" s="39"/>
+      <c r="K113" s="38"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="40"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="28">
+        <v>45736.839407685184</v>
+      </c>
+      <c r="D114" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>622</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="J114" s="42"/>
+      <c r="K114" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6361,25 +6438,28 @@
     <hyperlink ref="H111" r:id="rId142" xr:uid="{516E9B11-C6D7-46B1-AF77-3CC438A1CD8F}"/>
     <hyperlink ref="G112" r:id="rId143" xr:uid="{845D3B0D-C280-452A-9164-E07C7A4AB1EF}"/>
     <hyperlink ref="H112" r:id="rId144" xr:uid="{3B939D9F-06F7-40C1-8890-4997A28AA698}"/>
+    <hyperlink ref="D62" r:id="rId145" xr:uid="{718C1498-92F5-478D-B64E-294BA5B66609}"/>
+    <hyperlink ref="D6" r:id="rId146" xr:uid="{DCAF1AD8-4E5D-4EF5-8A84-2E5FE93D416C}"/>
+    <hyperlink ref="G113" r:id="rId147" xr:uid="{ACF7F5C0-90CF-468E-A2AC-560A1F4D8D7E}"/>
+    <hyperlink ref="G114" r:id="rId148" xr:uid="{2B1A4557-2FBB-4239-89F4-A3A9C8D3D96A}"/>
+    <hyperlink ref="H114" r:id="rId149" xr:uid="{AA090A44-5323-4204-B15A-CED12AF79C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
-  <legacyDrawing r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId150"/>
+  <legacyDrawing r:id="rId151"/>
   <tableParts count="1">
-    <tablePart r:id="rId147"/>
+    <tablePart r:id="rId152"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6596,27 +6676,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6641,9 +6714,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0DE9D98-0B76-481E-9F70-50D108D5A775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987EE40B-0398-47CE-AD78-94250B43D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2268" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="1944" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="640">
   <si>
     <t>Id</t>
   </si>
@@ -1979,6 +1979,49 @@
   <si>
     <t>www.linkedin.com/in/connor-liberman-02a582274</t>
   </si>
+  <si>
+    <t>Sandeep Rajkumar</t>
+  </si>
+  <si>
+    <t>Vanshil Lukhad</t>
+  </si>
+  <si>
+    <t>MKM - Marketing Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual Content creation </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wpEMrKUzI3Z1ZTfAWt8k3QSfztdv2maA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XKVU365ZuB6lFu9WVhiPaiAwiH7D9cvL</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vanshil-lukhad-8a76412b4?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=ios_app</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FpH4NBZkeK__6cw-6gzFN78vlaSLQH4i</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sandeep-rajkumar/</t>
+  </si>
+  <si>
+    <t>Sandeep Rajkumar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>srajkumar9@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanshil Lukhad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlukhad@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1987,7 +2030,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2034,6 +2077,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2041,6 +2085,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2066,6 +2111,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2075,7 +2136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2261,14 +2322,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2367,17 +2442,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{841C3931-2774-45F4-9F02-4E3BA09BCE6E}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{07346F99-54B8-40B3-8AEE-D5855B0EFFA8}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{BDAE409B-A493-4BEA-9655-3FE6717852A4}"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2451,13 +2558,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K114" totalsRowShown="0">
-  <autoFilter ref="A1:K114" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K117" totalsRowShown="0">
+  <autoFilter ref="A1:K117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2858,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113:H114"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6238,8 +6341,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="38"/>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="27">
         <v>45732.740430706021</v>
       </c>
@@ -6261,12 +6363,9 @@
       <c r="I113" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="J113" s="39"/>
-      <c r="K113" s="38"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="41"/>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <v>45736.839407685184</v>
       </c>
@@ -6288,8 +6387,79 @@
       <c r="I114" s="33" t="s">
         <v>586</v>
       </c>
-      <c r="J114" s="42"/>
-      <c r="K114" s="40"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115" s="38">
+        <v>45736.970133460651</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E115" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>627</v>
+      </c>
+      <c r="G115" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="I115" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116" s="39">
+        <v>45737.001387986107</v>
+      </c>
+      <c r="D116" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="F116" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="G116" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="H116" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="I116" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="40">
+        <v>45737.586128101852</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E117" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="G117" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="H117" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="I117" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="J117" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6443,26 +6613,25 @@
     <hyperlink ref="G113" r:id="rId147" xr:uid="{ACF7F5C0-90CF-468E-A2AC-560A1F4D8D7E}"/>
     <hyperlink ref="G114" r:id="rId148" xr:uid="{2B1A4557-2FBB-4239-89F4-A3A9C8D3D96A}"/>
     <hyperlink ref="H114" r:id="rId149" xr:uid="{AA090A44-5323-4204-B15A-CED12AF79C56}"/>
+    <hyperlink ref="G115" r:id="rId150" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="H115" r:id="rId151" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G116" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H116" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G117" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="H117" r:id="rId155" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="D115" r:id="rId156" xr:uid="{3F249FB9-2E21-43FD-A5F9-3A121BEAAD9B}"/>
+    <hyperlink ref="D117" r:id="rId157" xr:uid="{59A86561-1F96-4618-8077-1CD4F481A4F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId150"/>
-  <legacyDrawing r:id="rId151"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
+  <legacyDrawing r:id="rId159"/>
   <tableParts count="1">
-    <tablePart r:id="rId152"/>
+    <tablePart r:id="rId160"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -6675,7 +6844,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
@@ -6686,15 +6855,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6713,19 +6883,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987EE40B-0398-47CE-AD78-94250B43D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6578A37-2E5E-4FBB-A690-5A2FAD3AA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="1944" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14844" yWindow="1656" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="643">
   <si>
     <t>Id</t>
   </si>
@@ -1992,6 +1992,12 @@
     <t xml:space="preserve">Visual Content creation </t>
   </si>
   <si>
+    <t>srajkumar@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Vlukhad@myseneca.ca</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1wpEMrKUzI3Z1ZTfAWt8k3QSfztdv2maA</t>
   </si>
   <si>
@@ -2007,20 +2013,23 @@
     <t>https://www.linkedin.com/in/sandeep-rajkumar/</t>
   </si>
   <si>
-    <t>Sandeep Rajkumar</t>
+    <t>Fenil Mehta</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>srajkumar9@myseneca.ca</t>
+    <t>Mark Buchner</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Vanshil Lukhad</t>
+    <t>Local</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vlukhad@myseneca.ca</t>
+    <t>mark.buchner@senecapolytechnic.ca</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mark-buchner-bb6a7013/</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2086,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2085,7 +2093,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2115,7 +2122,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2123,7 +2129,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2343,7 +2348,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2460,7 +2465,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2472,12 +2483,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2559,8 +2566,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K117" totalsRowShown="0">
-  <autoFilter ref="A1:K117" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K118" totalsRowShown="0">
+  <autoFilter ref="A1:K118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2961,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3025,7 +3032,7 @@
         <v>272</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>273</v>
+        <v>638</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>273</v>
@@ -6341,7 +6348,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C113" s="27">
         <v>45732.740430706021</v>
       </c>
@@ -6365,7 +6372,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <v>45736.839407685184</v>
       </c>
@@ -6389,35 +6396,35 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C115" s="38">
         <v>45736.970133460651</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E115" s="48" t="s">
-        <v>636</v>
+      <c r="D115" s="44" t="s">
+        <v>631</v>
+      </c>
+      <c r="E115" s="41" t="s">
+        <v>627</v>
       </c>
       <c r="F115" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="G115" s="45" t="s">
-        <v>634</v>
-      </c>
-      <c r="H115" s="45" t="s">
-        <v>635</v>
+      <c r="G115" s="47" t="s">
+        <v>636</v>
+      </c>
+      <c r="H115" s="47" t="s">
+        <v>637</v>
       </c>
       <c r="I115" s="41" t="s">
         <v>629</v>
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C116" s="39">
         <v>45737.001387986107</v>
       </c>
-      <c r="D116" s="44" t="s">
+      <c r="D116" s="45" t="s">
         <v>259</v>
       </c>
       <c r="E116" s="42" t="s">
@@ -6426,10 +6433,10 @@
       <c r="F116" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="G116" s="46" t="s">
-        <v>631</v>
-      </c>
-      <c r="H116" s="46" t="s">
+      <c r="G116" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="H116" s="48" t="s">
         <v>262</v>
       </c>
       <c r="I116" s="42" t="s">
@@ -6437,29 +6444,50 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C117" s="40">
         <v>45737.586128101852</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E117" s="49" t="s">
-        <v>638</v>
+      <c r="D117" s="46" t="s">
+        <v>632</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>628</v>
       </c>
       <c r="F117" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="G117" s="47" t="s">
-        <v>632</v>
-      </c>
-      <c r="H117" s="47" t="s">
-        <v>633</v>
+      <c r="G117" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="H117" s="49" t="s">
+        <v>635</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>630</v>
       </c>
       <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="50"/>
+      <c r="D118" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6619,19 +6647,29 @@
     <hyperlink ref="H116" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="G117" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="H117" r:id="rId155" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D115" r:id="rId156" xr:uid="{3F249FB9-2E21-43FD-A5F9-3A121BEAAD9B}"/>
-    <hyperlink ref="D117" r:id="rId157" xr:uid="{59A86561-1F96-4618-8077-1CD4F481A4F2}"/>
+    <hyperlink ref="D118" r:id="rId156" xr:uid="{EC4A9BEA-16C1-495B-A52C-62FC445554E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId158"/>
-  <legacyDrawing r:id="rId159"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId157"/>
+  <legacyDrawing r:id="rId158"/>
   <tableParts count="1">
-    <tablePart r:id="rId160"/>
+    <tablePart r:id="rId159"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -6844,17 +6882,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6865,6 +6892,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6883,23 +6927,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>

--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6578A37-2E5E-4FBB-A690-5A2FAD3AA90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7334BFDC-40FB-413A-A28D-121B130D26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14844" yWindow="1656" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="644">
   <si>
     <t>Id</t>
   </si>
@@ -1992,12 +1992,6 @@
     <t xml:space="preserve">Visual Content creation </t>
   </si>
   <si>
-    <t>srajkumar@myseneca.ca</t>
-  </si>
-  <si>
-    <t>Vlukhad@myseneca.ca</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1wpEMrKUzI3Z1ZTfAWt8k3QSfztdv2maA</t>
   </si>
   <si>
@@ -2030,6 +2024,16 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/mark-buchner-bb6a7013/</t>
+  </si>
+  <si>
+    <t>srajkumar9@myseneca.ca</t>
+  </si>
+  <si>
+    <t>Vanshil Lukhad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlukhad@myseneca.ca</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2352,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2465,13 +2469,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2483,8 +2481,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2563,6 +2562,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2971,7 +2974,7 @@
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3035,7 @@
         <v>272</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>273</v>
@@ -6348,7 +6351,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C113" s="27">
         <v>45732.740430706021</v>
       </c>
@@ -6372,7 +6375,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <v>45736.839407685184</v>
       </c>
@@ -6396,12 +6399,12 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C115" s="38">
         <v>45736.970133460651</v>
       </c>
-      <c r="D115" s="44" t="s">
-        <v>631</v>
+      <c r="D115" s="23" t="s">
+        <v>641</v>
       </c>
       <c r="E115" s="41" t="s">
         <v>627</v>
@@ -6409,22 +6412,22 @@
       <c r="F115" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="G115" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="H115" s="47" t="s">
-        <v>637</v>
+      <c r="G115" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>635</v>
       </c>
       <c r="I115" s="41" t="s">
         <v>629</v>
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C116" s="39">
         <v>45737.001387986107</v>
       </c>
-      <c r="D116" s="45" t="s">
+      <c r="D116" s="44" t="s">
         <v>259</v>
       </c>
       <c r="E116" s="42" t="s">
@@ -6433,10 +6436,10 @@
       <c r="F116" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="G116" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="H116" s="48" t="s">
+      <c r="G116" s="46" t="s">
+        <v>631</v>
+      </c>
+      <c r="H116" s="46" t="s">
         <v>262</v>
       </c>
       <c r="I116" s="42" t="s">
@@ -6444,50 +6447,48 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C117" s="40">
         <v>45737.586128101852</v>
       </c>
-      <c r="D117" s="46" t="s">
-        <v>632</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>628</v>
+      <c r="D117" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="E117" s="48" t="s">
+        <v>642</v>
       </c>
       <c r="F117" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="G117" s="49" t="s">
-        <v>634</v>
-      </c>
-      <c r="H117" s="49" t="s">
-        <v>635</v>
+      <c r="G117" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="H117" s="47" t="s">
+        <v>633</v>
       </c>
       <c r="I117" s="43" t="s">
         <v>630</v>
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D118" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="H118" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="I118" s="2"/>
-      <c r="J118" s="51"/>
-      <c r="K118" s="50"/>
+      <c r="J118" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6659,14 +6660,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6883,27 +6882,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6928,9 +6920,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7334BFDC-40FB-413A-A28D-121B130D26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A6FEA3-43A9-4509-A988-1FB27DF57536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14844" yWindow="1656" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="648">
   <si>
     <t>Id</t>
   </si>
@@ -1983,9 +1983,6 @@
     <t>Sandeep Rajkumar</t>
   </si>
   <si>
-    <t>Vanshil Lukhad</t>
-  </si>
-  <si>
     <t>MKM - Marketing Management</t>
   </si>
   <si>
@@ -2034,6 +2031,23 @@
   </si>
   <si>
     <t>vlukhad@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shayan Heydari</t>
+  </si>
+  <si>
+    <t>Computer programming</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17q1nBpY-5VRkomV-HiveiEKXibmNlrFc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/shayan-heydari-4a76b9212/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BaywOfnIhQh2Cs%2Fx9qC7xvg%3D%3D</t>
+  </si>
+  <si>
+    <t>hshayan@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2569,8 +2583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K118" totalsRowShown="0">
-  <autoFilter ref="A1:K118" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K119" totalsRowShown="0">
+  <autoFilter ref="A1:K119" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2971,10 +2985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3049,7 @@
         <v>272</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>273</v>
@@ -6404,7 +6418,7 @@
         <v>45736.970133460651</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E115" s="41" t="s">
         <v>627</v>
@@ -6413,13 +6427,13 @@
         <v>627</v>
       </c>
       <c r="G115" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="H115" s="45" t="s">
         <v>634</v>
       </c>
-      <c r="H115" s="45" t="s">
-        <v>635</v>
-      </c>
       <c r="I115" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J115" s="2"/>
     </row>
@@ -6437,7 +6451,7 @@
         <v>517</v>
       </c>
       <c r="G116" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H116" s="46" t="s">
         <v>262</v>
@@ -6451,44 +6465,68 @@
       <c r="C117" s="40">
         <v>45737.586128101852</v>
       </c>
-      <c r="D117" s="23" t="s">
-        <v>643</v>
+      <c r="D117" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="E117" s="48" t="s">
-        <v>642</v>
-      </c>
-      <c r="F117" s="43" t="s">
-        <v>628</v>
+        <v>641</v>
+      </c>
+      <c r="F117" s="48" t="s">
+        <v>641</v>
       </c>
       <c r="G117" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="H117" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="H117" s="47" t="s">
-        <v>633</v>
-      </c>
       <c r="I117" s="43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D118" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119" s="28">
+        <v>45740.78423853009</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="I119" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="J119" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6649,12 +6687,16 @@
     <hyperlink ref="G117" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
     <hyperlink ref="H117" r:id="rId155" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="D118" r:id="rId156" xr:uid="{EC4A9BEA-16C1-495B-A52C-62FC445554E9}"/>
+    <hyperlink ref="D117" r:id="rId157" xr:uid="{715DF981-0FFB-46E9-BCB9-5A6BDCAFAFC6}"/>
+    <hyperlink ref="G119" r:id="rId158" xr:uid="{D494CB86-1F30-4ECF-BE15-27E281160811}"/>
+    <hyperlink ref="H119" r:id="rId159" xr:uid="{DB29710F-2D9F-4D83-AE20-5C9FC34BA66B}"/>
+    <hyperlink ref="D119" r:id="rId160" xr:uid="{47D2108E-D742-4036-B14C-D5F7968D7584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId157"/>
-  <legacyDrawing r:id="rId158"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId161"/>
+  <legacyDrawing r:id="rId162"/>
   <tableParts count="1">
-    <tablePart r:id="rId159"/>
+    <tablePart r:id="rId163"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6669,6 +6711,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -6881,17 +6934,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
@@ -6901,6 +6943,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6917,21 +6976,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
+++ b/excel_input/Hackathon 2025 Organizing Team Member Profile Submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\excel_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75A6FEA3-43A9-4509-A988-1FB27DF57536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058005D8-AEBB-4213-AE24-72BED0DAA54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14844" yWindow="1656" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="2268" windowWidth="21288" windowHeight="15012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="667">
   <si>
     <t>Id</t>
   </si>
@@ -2047,6 +2047,67 @@
   </si>
   <si>
     <t>hshayan@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S M Abdullah Ahsan</t>
+  </si>
+  <si>
+    <t>Owen Nelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeeba Javed </t>
+  </si>
+  <si>
+    <t>Rowena Dollison</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aE4I4yT6QQfJ7fRBT5pLVlJuznVu0UuG</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/me?trk=p_mwlite_search_srp-secondary_nav</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EHlMOoc6jlJh_hl0mrV6GzpWIr5BSOpr</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/owen-nelson-19a940346</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1f8n1_2oXjz4PuJI51VyWrkW4cIzWqvxV</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com/in/adeejave</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PuMDl_nw8T51Qd5ptshKjeGzIslrTweN</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rowenadollison/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPA Computer Programming and Analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event and Media Production </t>
+  </si>
+  <si>
+    <t>Financial Technology, and Project Management - IT Alumni</t>
+  </si>
+  <si>
+    <t>aj.adeebajaved@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smaahsan@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onelson2@myseneca.ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdollison@myseneca.ca</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2366,7 +2427,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2498,6 +2559,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2583,8 +2649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K119" totalsRowShown="0">
-  <autoFilter ref="A1:K119" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:K123" totalsRowShown="0">
+  <autoFilter ref="A1:K123" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K66">
     <sortCondition ref="K1:K66"/>
   </sortState>
@@ -2985,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="E112" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6365,7 +6431,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C113" s="27">
         <v>45732.740430706021</v>
       </c>
@@ -6389,7 +6455,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C114" s="28">
         <v>45736.839407685184</v>
       </c>
@@ -6413,7 +6479,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C115" s="38">
         <v>45736.970133460651</v>
       </c>
@@ -6437,7 +6503,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C116" s="39">
         <v>45737.001387986107</v>
       </c>
@@ -6461,7 +6527,7 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C117" s="40">
         <v>45737.586128101852</v>
       </c>
@@ -6485,7 +6551,7 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D118" s="4" t="s">
         <v>638</v>
       </c>
@@ -6504,7 +6570,7 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C119" s="28">
         <v>45740.78423853009</v>
       </c>
@@ -6527,6 +6593,111 @@
         <v>644</v>
       </c>
       <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="49"/>
+      <c r="C120" s="27">
+        <v>45741.085818113424</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E120" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="H120" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="I120" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="J120" s="50"/>
+      <c r="K120" s="49"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="49"/>
+      <c r="C121" s="26">
+        <v>45741.455264884258</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E121" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="G121" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="H121" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="I121" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="J121" s="50"/>
+      <c r="K121" s="49"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="49"/>
+      <c r="C122" s="27">
+        <v>45741.738485000002</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E122" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="F122" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="I122" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J122" s="50"/>
+      <c r="K122" s="49"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="51"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="28">
+        <v>45741.938287581019</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="G123" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="H123" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="J123" s="53"/>
+      <c r="K123" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6691,12 +6862,24 @@
     <hyperlink ref="G119" r:id="rId158" xr:uid="{D494CB86-1F30-4ECF-BE15-27E281160811}"/>
     <hyperlink ref="H119" r:id="rId159" xr:uid="{DB29710F-2D9F-4D83-AE20-5C9FC34BA66B}"/>
     <hyperlink ref="D119" r:id="rId160" xr:uid="{47D2108E-D742-4036-B14C-D5F7968D7584}"/>
+    <hyperlink ref="G120" r:id="rId161" xr:uid="{366D4E02-7815-4B3C-B9ED-3DD456DC73B0}"/>
+    <hyperlink ref="H120" r:id="rId162" xr:uid="{00C941BC-FF20-4188-886C-2AB7D112FFED}"/>
+    <hyperlink ref="G121" r:id="rId163" xr:uid="{05135A8A-E28C-4726-BB80-D66F2120D330}"/>
+    <hyperlink ref="H121" r:id="rId164" xr:uid="{467AA8AA-37BD-421B-AD23-249292AF1ADB}"/>
+    <hyperlink ref="G122" r:id="rId165" xr:uid="{703717DB-E197-4EEA-9DC8-72912B366C90}"/>
+    <hyperlink ref="H122" r:id="rId166" xr:uid="{DADB40C7-5F61-4343-8608-5F2038B82A04}"/>
+    <hyperlink ref="G123" r:id="rId167" xr:uid="{71CF16D2-A05C-4243-B220-0F63A17FE938}"/>
+    <hyperlink ref="H123" r:id="rId168" xr:uid="{972D3F11-FEB4-483D-8173-3A01F997CF05}"/>
+    <hyperlink ref="D122" r:id="rId169" xr:uid="{5036D8BF-ECD7-452A-A2A6-4DA5FE8BC41F}"/>
+    <hyperlink ref="D120" r:id="rId170" xr:uid="{2995AE84-D6BC-4BF6-8E17-C10480DA33D7}"/>
+    <hyperlink ref="D121" r:id="rId171" xr:uid="{54AC2B99-88B3-480C-9B39-C06C69A27960}"/>
+    <hyperlink ref="D123" r:id="rId172" xr:uid="{652EDA34-525D-44C3-B2A6-FF0C8B0CD247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId161"/>
-  <legacyDrawing r:id="rId162"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <legacyDrawing r:id="rId174"/>
   <tableParts count="1">
-    <tablePart r:id="rId163"/>
+    <tablePart r:id="rId175"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6711,17 +6894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB5B515010BFB41A71EECADA093B687" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579b45423472ebbaf4eed9c56b664d89">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="11336436-e19c-451d-b666-d7c312f84b68" xmlns:ns3="b8d82043-2af1-4b83-b781-b5f1c44103c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95cf8f956f3c1dab4d6aa3fe57d77289" ns2:_="" ns3:_="">
     <xsd:import namespace="11336436-e19c-451d-b666-d7c312f84b68"/>
@@ -6934,6 +7106,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="11336436-e19c-451d-b666-d7c312f84b68">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b8d82043-2af1-4b83-b781-b5f1c44103c2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56BE6962-09DF-4C7A-9777-8A7F4643AC2E}">
   <ds:schemaRefs>
@@ -6943,23 +7126,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB3CBDFA-9AAE-4389-9808-2150F2B25301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6976,4 +7142,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965B0BEE-CA76-4190-A40E-2CA8E924EE1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b8d82043-2af1-4b83-b781-b5f1c44103c2"/>
+    <ds:schemaRef ds:uri="11336436-e19c-451d-b666-d7c312f84b68"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>